--- a/results-v2.xlsx
+++ b/results-v2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\thesis\thesis-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2F66BD9-D96E-4FFE-A4FC-F5E10D001331}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A0CD7D-ADC0-47B7-8926-7CAB919D3C73}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="63">
   <si>
     <t>DPDK</t>
   </si>
@@ -198,11 +198,32 @@
   <si>
     <t>%packet loss</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Std Deviation</t>
+  </si>
+  <si>
+    <t>Varience</t>
+  </si>
+  <si>
+    <t>Percent Range</t>
+  </si>
+  <si>
+    <t>Avg Std Deviation</t>
+  </si>
+  <si>
+    <t>Avg Varience</t>
+  </si>
+  <si>
+    <t>Avg Percent Range</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16">
     <font>
       <sz val="11"/>
@@ -365,7 +386,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
@@ -384,8 +405,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -395,26 +417,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="18">
-    <cellStyle name="Accent" xfId="7"/>
-    <cellStyle name="Accent 1" xfId="8"/>
-    <cellStyle name="Accent 2" xfId="9"/>
-    <cellStyle name="Accent 3" xfId="10"/>
+  <cellStyles count="19">
+    <cellStyle name="Accent" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Bad" xfId="4" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Error" xfId="11"/>
-    <cellStyle name="Footnote" xfId="12"/>
+    <cellStyle name="Error" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Good" xfId="3" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading" xfId="13"/>
+    <cellStyle name="Heading" xfId="13" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="14"/>
+    <cellStyle name="Hyperlink" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="6" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Status" xfId="15"/>
-    <cellStyle name="Text" xfId="16"/>
-    <cellStyle name="Warning" xfId="17"/>
+    <cellStyle name="Percent" xfId="18" builtinId="5"/>
+    <cellStyle name="Status" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Text" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Warning" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -725,11 +749,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ229"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K215" sqref="K215"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13123,11 +13147,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I190"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I332"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13214,7 +13238,7 @@
         <v>8984307840</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I72" si="0">((D6-F6)*100)/D6</f>
+        <f t="shared" ref="I6:I119" si="0">((D6-F6)*100)/D6</f>
         <v>7.4752E-4</v>
       </c>
     </row>
@@ -13282,48 +13306,73 @@
       </c>
     </row>
     <row r="10" spans="1:9">
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
       <c r="F10">
         <f>AVERAGE(F5:F9)</f>
         <v>195310198.19999999</v>
       </c>
+      <c r="G10">
+        <f>AVERAGE(G5:G9)</f>
+        <v>8984269117.2000008</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10" si="1">AVERAGE(I5:I9)</f>
+        <v>1.1785215999999999E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
       <c r="F11">
         <f>_xlfn.STDEV.P(F5:F9)</f>
         <v>2427.6461356631035</v>
       </c>
+      <c r="G11">
+        <f>_xlfn.STDEV.P(G5:G9)</f>
+        <v>111671.72224050277</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ref="I11" si="2">_xlfn.STDEV.P(I5:I9)</f>
+        <v>1.2429548214595092E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
       <c r="F12">
         <f>_xlfn.VAR.P(F5:F9)</f>
         <v>5893465.7599999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14">
+      <c r="G12">
+        <f>_xlfn.VAR.P(G5:G9)</f>
+        <v>12470573548.16</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12" si="3">_xlfn.VAR.P(I5:I9)</f>
+        <v>1.5449366881894403E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13">
+        <f>((MAX(F5:F9)-MIN(F5:F9))*100)/AVERAGE(F5:F9)</f>
+        <v>3.2338301113863702E-3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13" si="4">((MAX(G5:G9)-MIN(G5:G9))*100)/AVERAGE(G5:G9)</f>
+        <v>3.2338301113863698E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15">
         <v>128</v>
       </c>
-      <c r="C14">
-        <v>97656250</v>
-      </c>
-      <c r="D14">
-        <v>97656250</v>
-      </c>
-      <c r="E14">
-        <v>12109375000</v>
-      </c>
-      <c r="F14">
-        <v>97656250</v>
-      </c>
-      <c r="G14">
-        <v>10742187500</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
       <c r="C15">
         <v>97656250</v>
       </c>
@@ -13407,132 +13456,130 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="2:9">
+      <c r="C19">
+        <v>97656250</v>
+      </c>
+      <c r="D19">
+        <v>97656250</v>
+      </c>
+      <c r="E19">
+        <v>12109375000</v>
+      </c>
+      <c r="F19">
+        <v>97656250</v>
+      </c>
+      <c r="G19">
+        <v>10742187500</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="20" spans="2:9">
-      <c r="B20">
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20">
+        <f>AVERAGE(F15:F19)</f>
+        <v>97656250</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:I20" si="5">AVERAGE(G15:G19)</f>
+        <v>10742187500</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21">
+        <f>_xlfn.STDEV.P(F15:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:I21" si="6">_xlfn.STDEV.P(G15:G19)</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22">
+        <f>_xlfn.VAR.P(F15:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:I22" si="7">_xlfn.VAR.P(G15:G19)</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23">
+        <f>((MAX(F15:F19)-MIN(F15:F19))*100)/AVERAGE(F15:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23" si="8">((MAX(G15:G19)-MIN(G15:G19))*100)/AVERAGE(G15:G19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25">
         <v>256</v>
       </c>
-      <c r="C20">
+      <c r="C25">
         <v>48828125</v>
       </c>
-      <c r="D20">
+      <c r="D25">
         <v>48828125</v>
       </c>
-      <c r="E20">
+      <c r="E25">
         <v>12304687500</v>
       </c>
-      <c r="F20">
+      <c r="F25">
         <v>48828125</v>
       </c>
-      <c r="G20">
+      <c r="G25">
         <v>11621093750</v>
       </c>
-      <c r="I20">
+      <c r="I25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
-      <c r="C21">
+    <row r="26" spans="2:9">
+      <c r="C26">
         <v>48828125</v>
       </c>
-      <c r="D21">
+      <c r="D26">
         <v>48828125</v>
       </c>
-      <c r="E21">
+      <c r="E26">
         <v>12304687500</v>
       </c>
-      <c r="F21">
+      <c r="F26">
         <v>48828125</v>
       </c>
-      <c r="G21">
+      <c r="G26">
         <v>11621093750</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="C22">
-        <v>48828125</v>
-      </c>
-      <c r="D22">
-        <v>48828125</v>
-      </c>
-      <c r="E22">
-        <v>12304687500</v>
-      </c>
-      <c r="F22">
-        <v>48828125</v>
-      </c>
-      <c r="G22">
-        <v>11621093750</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="C23">
-        <v>48828125</v>
-      </c>
-      <c r="D23">
-        <v>48828125</v>
-      </c>
-      <c r="E23">
-        <v>12304687500</v>
-      </c>
-      <c r="F23">
-        <v>48828125</v>
-      </c>
-      <c r="G23">
-        <v>11621093750</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="C24">
-        <v>48828125</v>
-      </c>
-      <c r="D24">
-        <v>48828125</v>
-      </c>
-      <c r="E24">
-        <v>12304687500</v>
-      </c>
-      <c r="F24">
-        <v>48828125</v>
-      </c>
-      <c r="G24">
-        <v>11621093750</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26">
-        <v>512</v>
-      </c>
-      <c r="C26">
-        <v>24414063</v>
-      </c>
-      <c r="D26">
-        <v>24414063</v>
-      </c>
-      <c r="E26">
-        <v>12402344004</v>
-      </c>
-      <c r="F26">
-        <v>24414063</v>
-      </c>
-      <c r="G26">
-        <v>12060547122</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
@@ -13541,19 +13588,19 @@
     </row>
     <row r="27" spans="2:9">
       <c r="C27">
-        <v>24414063</v>
+        <v>48828125</v>
       </c>
       <c r="D27">
-        <v>24414063</v>
+        <v>48828125</v>
       </c>
       <c r="E27">
-        <v>12402344004</v>
+        <v>12304687500</v>
       </c>
       <c r="F27">
-        <v>24414063</v>
+        <v>48828125</v>
       </c>
       <c r="G27">
-        <v>12060547122</v>
+        <v>11621093750</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
@@ -13562,19 +13609,19 @@
     </row>
     <row r="28" spans="2:9">
       <c r="C28">
-        <v>24414063</v>
+        <v>48828125</v>
       </c>
       <c r="D28">
-        <v>24414063</v>
+        <v>48828125</v>
       </c>
       <c r="E28">
-        <v>12402344004</v>
+        <v>12304687500</v>
       </c>
       <c r="F28">
-        <v>24414063</v>
+        <v>48828125</v>
       </c>
       <c r="G28">
-        <v>12060547122</v>
+        <v>11621093750</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
@@ -13583,19 +13630,19 @@
     </row>
     <row r="29" spans="2:9">
       <c r="C29">
-        <v>24414063</v>
+        <v>48828125</v>
       </c>
       <c r="D29">
-        <v>24414063</v>
+        <v>48828125</v>
       </c>
       <c r="E29">
-        <v>12402344004</v>
+        <v>12304687500</v>
       </c>
       <c r="F29">
-        <v>24414063</v>
+        <v>48828125</v>
       </c>
       <c r="G29">
-        <v>12060547122</v>
+        <v>11621093750</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
@@ -13603,900 +13650,821 @@
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="C30">
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30">
+        <f>AVERAGE(F25:F29)</f>
+        <v>48828125</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ref="G30" si="9">AVERAGE(G25:G29)</f>
+        <v>11621093750</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ref="I30" si="10">AVERAGE(I25:I29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31">
+        <f>_xlfn.STDEV.P(F25:F29)</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31" si="11">_xlfn.STDEV.P(G25:G29)</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ref="I31" si="12">_xlfn.STDEV.P(I25:I29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32">
+        <f>_xlfn.VAR.P(F25:F29)</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32" si="13">_xlfn.VAR.P(G25:G29)</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ref="I32" si="14">_xlfn.VAR.P(I25:I29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33">
+        <f>((MAX(F25:F29)-MIN(F25:F29))*100)/AVERAGE(F25:F29)</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33" si="15">((MAX(G25:G29)-MIN(G25:G29))*100)/AVERAGE(G25:G29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" s="5" customFormat="1"/>
+    <row r="35" spans="2:9">
+      <c r="B35">
+        <v>512</v>
+      </c>
+      <c r="C35">
         <v>24414063</v>
       </c>
-      <c r="D30">
+      <c r="D35">
         <v>24414063</v>
       </c>
-      <c r="E30">
+      <c r="E35">
         <v>12402344004</v>
       </c>
-      <c r="F30">
+      <c r="F35">
         <v>24414063</v>
       </c>
-      <c r="G30">
+      <c r="G35">
         <v>12060547122</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32">
-        <v>1024</v>
-      </c>
-      <c r="C32">
-        <v>12207032</v>
-      </c>
-      <c r="D32">
-        <v>12207032</v>
-      </c>
-      <c r="E32">
-        <v>12451172640</v>
-      </c>
-      <c r="F32">
-        <v>12207032</v>
-      </c>
-      <c r="G32">
-        <v>12280274192</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="C33">
-        <v>12207032</v>
-      </c>
-      <c r="D33">
-        <v>12207032</v>
-      </c>
-      <c r="E33">
-        <v>12451172640</v>
-      </c>
-      <c r="F33">
-        <v>12207032</v>
-      </c>
-      <c r="G33">
-        <v>12280274192</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="C34">
-        <v>12207032</v>
-      </c>
-      <c r="D34">
-        <v>12207032</v>
-      </c>
-      <c r="E34">
-        <v>12451172640</v>
-      </c>
-      <c r="F34">
-        <v>12207032</v>
-      </c>
-      <c r="G34">
-        <v>12280274192</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="C35">
-        <v>12207032</v>
-      </c>
-      <c r="D35">
-        <v>12207032</v>
-      </c>
-      <c r="E35">
-        <v>12451172640</v>
-      </c>
-      <c r="F35">
-        <v>12207032</v>
-      </c>
-      <c r="G35">
-        <v>12280274192</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="2:9">
       <c r="C36">
-        <v>12207032</v>
+        <v>24414063</v>
       </c>
       <c r="D36">
-        <v>12207032</v>
+        <v>24414063</v>
       </c>
       <c r="E36">
-        <v>12451172640</v>
+        <v>12402344004</v>
       </c>
       <c r="F36">
-        <v>12207032</v>
+        <v>24414063</v>
       </c>
       <c r="G36">
-        <v>12280274192</v>
+        <v>12060547122</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39">
-        <v>64</v>
-      </c>
+    <row r="37" spans="2:9">
+      <c r="C37">
+        <v>24414063</v>
+      </c>
+      <c r="D37">
+        <v>24414063</v>
+      </c>
+      <c r="E37">
+        <v>12402344004</v>
+      </c>
+      <c r="F37">
+        <v>24414063</v>
+      </c>
+      <c r="G37">
+        <v>12060547122</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="C38">
+        <v>24414063</v>
+      </c>
+      <c r="D38">
+        <v>24414063</v>
+      </c>
+      <c r="E38">
+        <v>12402344004</v>
+      </c>
+      <c r="F38">
+        <v>24414063</v>
+      </c>
+      <c r="G38">
+        <v>12060547122</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
       <c r="C39">
-        <v>195312500</v>
+        <v>24414063</v>
       </c>
       <c r="D39">
-        <v>195312500</v>
+        <v>24414063</v>
       </c>
       <c r="E39">
-        <v>11718750000</v>
+        <v>12402344004</v>
       </c>
       <c r="F39">
-        <v>188684956</v>
+        <v>24414063</v>
       </c>
       <c r="G39">
-        <v>8679507976</v>
+        <v>12060547122</v>
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="E40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40">
+        <f>AVERAGE(F35:F39)</f>
+        <v>24414063</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ref="G40" si="16">AVERAGE(G35:G39)</f>
+        <v>12060547122</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ref="I40" si="17">AVERAGE(I35:I39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="E41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41">
+        <f>_xlfn.STDEV.P(F35:F39)</f>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ref="G41" si="18">_xlfn.STDEV.P(G35:G39)</f>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ref="I41" si="19">_xlfn.STDEV.P(I35:I39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="E42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42">
+        <f>_xlfn.VAR.P(F35:F39)</f>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ref="G42" si="20">_xlfn.VAR.P(G35:G39)</f>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ref="I42" si="21">_xlfn.VAR.P(I35:I39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="E43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43">
+        <f>((MAX(F35:F39)-MIN(F35:F39))*100)/AVERAGE(F35:F39)</f>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ref="G43" si="22">((MAX(G35:G39)-MIN(G35:G39))*100)/AVERAGE(G35:G39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45">
+        <v>1024</v>
+      </c>
+      <c r="C45">
+        <v>12207032</v>
+      </c>
+      <c r="D45">
+        <v>12207032</v>
+      </c>
+      <c r="E45">
+        <v>12451172640</v>
+      </c>
+      <c r="F45">
+        <v>12207032</v>
+      </c>
+      <c r="G45">
+        <v>12280274192</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="C46">
+        <v>12207032</v>
+      </c>
+      <c r="D46">
+        <v>12207032</v>
+      </c>
+      <c r="E46">
+        <v>12451172640</v>
+      </c>
+      <c r="F46">
+        <v>12207032</v>
+      </c>
+      <c r="G46">
+        <v>12280274192</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="C47">
+        <v>12207032</v>
+      </c>
+      <c r="D47">
+        <v>12207032</v>
+      </c>
+      <c r="E47">
+        <v>12451172640</v>
+      </c>
+      <c r="F47">
+        <v>12207032</v>
+      </c>
+      <c r="G47">
+        <v>12280274192</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="C48">
+        <v>12207032</v>
+      </c>
+      <c r="D48">
+        <v>12207032</v>
+      </c>
+      <c r="E48">
+        <v>12451172640</v>
+      </c>
+      <c r="F48">
+        <v>12207032</v>
+      </c>
+      <c r="G48">
+        <v>12280274192</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="C49">
+        <v>12207032</v>
+      </c>
+      <c r="D49">
+        <v>12207032</v>
+      </c>
+      <c r="E49">
+        <v>12451172640</v>
+      </c>
+      <c r="F49">
+        <v>12207032</v>
+      </c>
+      <c r="G49">
+        <v>12280274192</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="E50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50">
+        <f>AVERAGE(F45:F49)</f>
+        <v>12207032</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ref="G50" si="23">AVERAGE(G45:G49)</f>
+        <v>12280274192</v>
+      </c>
+      <c r="I50">
+        <f t="shared" ref="I50" si="24">AVERAGE(I45:I49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="E51" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51">
+        <f>_xlfn.STDEV.P(F45:F49)</f>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ref="G51" si="25">_xlfn.STDEV.P(G45:G49)</f>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ref="I51" si="26">_xlfn.STDEV.P(I45:I49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="E52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52">
+        <f>_xlfn.VAR.P(F45:F49)</f>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ref="G52" si="27">_xlfn.VAR.P(G45:G49)</f>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f t="shared" ref="I52" si="28">_xlfn.VAR.P(I45:I49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="E53" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53">
+        <f>((MAX(F45:F49)-MIN(F45:F49))*100)/AVERAGE(F45:F49)</f>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" ref="G53" si="29">((MAX(G45:G49)-MIN(G45:G49))*100)/AVERAGE(G45:G49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="D56" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56">
+        <f>AVERAGE(F51,F41,F31,F21,F11)</f>
+        <v>485.52922713262069</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="D57" t="s">
+        <v>61</v>
+      </c>
+      <c r="F57">
+        <f>AVERAGE(F52,F42,F32,F22,F12)</f>
+        <v>1178693.152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="D58" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58">
+        <f>AVERAGE(F53,F43,F33,F23,F13)</f>
+        <v>6.46766022277274E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61">
+        <v>64</v>
+      </c>
+      <c r="C61">
+        <v>195312500</v>
+      </c>
+      <c r="D61">
+        <v>195312500</v>
+      </c>
+      <c r="E61">
+        <v>11718750000</v>
+      </c>
+      <c r="F61">
+        <v>188684956</v>
+      </c>
+      <c r="G61">
+        <v>8679507976</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="0"/>
         <v>3.393302528</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="C40">
+    <row r="62" spans="1:9">
+      <c r="C62">
         <v>195312500</v>
       </c>
-      <c r="D40">
+      <c r="D62">
         <v>195312500</v>
       </c>
-      <c r="E40">
+      <c r="E62">
         <v>11718750000</v>
       </c>
-      <c r="F40">
+      <c r="F62">
         <v>189017452</v>
       </c>
-      <c r="G40">
+      <c r="G62">
         <v>8694802792</v>
       </c>
-      <c r="I40">
+      <c r="I62">
         <f t="shared" si="0"/>
         <v>3.2230645760000001</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="C41">
+    <row r="63" spans="1:9">
+      <c r="C63">
         <v>195312500</v>
       </c>
-      <c r="D41">
+      <c r="D63">
         <v>195312500</v>
       </c>
-      <c r="E41">
+      <c r="E63">
         <v>11718750000</v>
       </c>
-      <c r="F41">
+      <c r="F63">
         <v>189305664</v>
       </c>
-      <c r="G41">
+      <c r="G63">
         <v>8708060544</v>
       </c>
-      <c r="I41">
+      <c r="I63">
         <f t="shared" si="0"/>
         <v>3.0755000319999999</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="C42">
+    <row r="64" spans="1:9">
+      <c r="C64">
         <v>195312500</v>
       </c>
-      <c r="D42">
+      <c r="D64">
         <v>195312500</v>
       </c>
-      <c r="E42">
+      <c r="E64">
         <v>11718750000</v>
       </c>
-      <c r="F42">
+      <c r="F64">
         <v>189658747</v>
       </c>
-      <c r="G42">
+      <c r="G64">
         <v>8724302362</v>
       </c>
-      <c r="I42">
+      <c r="I64">
         <f t="shared" si="0"/>
         <v>2.894721536</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="C43">
+    <row r="65" spans="2:9">
+      <c r="C65">
         <v>195312500</v>
       </c>
-      <c r="D43">
+      <c r="D65">
         <v>195312500</v>
       </c>
-      <c r="E43">
+      <c r="E65">
         <v>11718750000</v>
       </c>
-      <c r="F43">
+      <c r="F65">
         <v>190019050</v>
       </c>
-      <c r="G43">
+      <c r="G65">
         <v>8740876300</v>
       </c>
-      <c r="I43">
+      <c r="I65">
         <f t="shared" si="0"/>
         <v>2.7102463999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="B45">
+    <row r="66" spans="2:9">
+      <c r="E66" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66">
+        <f>AVERAGE(F61:F65)</f>
+        <v>189337173.80000001</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ref="G66" si="30">AVERAGE(G61:G65)</f>
+        <v>8709509994.7999992</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ref="I66" si="31">AVERAGE(I61:I65)</f>
+        <v>3.0593670144000003</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="E67" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67">
+        <f>_xlfn.STDEV.P(F61:F65)</f>
+        <v>468394.5837886685</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67" si="32">_xlfn.STDEV.P(G61:G65)</f>
+        <v>21546150.854278751</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67" si="33">_xlfn.STDEV.P(I61:I65)</f>
+        <v>0.23981802689979831</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="E68" t="s">
+        <v>58</v>
+      </c>
+      <c r="F68">
+        <f>_xlfn.VAR.P(F61:F65)</f>
+        <v>219393486122.56</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ref="G68" si="34">_xlfn.VAR.P(G61:G65)</f>
+        <v>464236616635336.88</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68" si="35">_xlfn.VAR.P(I61:I65)</f>
+        <v>5.7512686026112383E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="E69" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69">
+        <f>((MAX(F61:F65)-MIN(F61:F65))*100)/AVERAGE(F61:F65)</f>
+        <v>0.70461282020044602</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ref="G69" si="36">((MAX(G61:G65)-MIN(G61:G65))*100)/AVERAGE(G61:G65)</f>
+        <v>0.70461282020044613</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ref="I69" si="37">((MAX(I61:I65)-MIN(I61:I65))*100)/AVERAGE(I61:I65)</f>
+        <v>22.326714146585001</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71">
         <v>128</v>
       </c>
-      <c r="C45">
+      <c r="C71">
         <v>97656250</v>
       </c>
-      <c r="D45">
+      <c r="D71">
         <v>97656250</v>
       </c>
-      <c r="E45">
+      <c r="E71">
         <v>12109375000</v>
       </c>
-      <c r="F45">
+      <c r="F71">
         <v>97542730</v>
       </c>
-      <c r="G45">
+      <c r="G71">
         <v>10729700300</v>
       </c>
-      <c r="I45">
+      <c r="I71">
         <f t="shared" si="0"/>
         <v>0.11624448</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="C46">
+    <row r="72" spans="2:9">
+      <c r="C72">
         <v>97656250</v>
       </c>
-      <c r="D46">
+      <c r="D72">
         <v>97656250</v>
       </c>
-      <c r="E46">
+      <c r="E72">
         <v>12109375000</v>
       </c>
-      <c r="F46">
+      <c r="F72">
         <v>97555396</v>
       </c>
-      <c r="G46">
+      <c r="G72">
         <v>10731093560</v>
       </c>
-      <c r="I46">
+      <c r="I72">
         <f t="shared" si="0"/>
         <v>0.10327449599999999</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="C47">
+    <row r="73" spans="2:9">
+      <c r="C73">
         <v>97656250</v>
       </c>
-      <c r="D47">
+      <c r="D73">
         <v>97656250</v>
       </c>
-      <c r="E47">
+      <c r="E73">
         <v>12109375000</v>
       </c>
-      <c r="F47">
+      <c r="F73">
         <v>97551852</v>
       </c>
-      <c r="G47">
+      <c r="G73">
         <v>10730703720</v>
       </c>
-      <c r="I47">
+      <c r="I73">
         <f t="shared" si="0"/>
         <v>0.106903552</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
-      <c r="C48">
+    <row r="74" spans="2:9">
+      <c r="C74">
         <v>97656250</v>
       </c>
-      <c r="D48">
+      <c r="D74">
         <v>97656250</v>
       </c>
-      <c r="E48">
+      <c r="E74">
         <v>12109375000</v>
       </c>
-      <c r="F48">
+      <c r="F74">
         <v>97580250</v>
       </c>
-      <c r="G48">
+      <c r="G74">
         <v>10733827500</v>
       </c>
-      <c r="I48">
+      <c r="I74">
         <f t="shared" si="0"/>
         <v>7.7824000000000004E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
-      <c r="C49">
+    <row r="75" spans="2:9">
+      <c r="C75">
         <v>97656250</v>
       </c>
-      <c r="D49">
+      <c r="D75">
         <v>97656250</v>
       </c>
-      <c r="E49">
+      <c r="E75">
         <v>12109375000</v>
       </c>
-      <c r="F49">
+      <c r="F75">
         <v>97553325</v>
       </c>
-      <c r="G49">
+      <c r="G75">
         <v>10730865750</v>
       </c>
-      <c r="I49">
+      <c r="I75">
         <f t="shared" si="0"/>
         <v>0.10539519999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
-      <c r="B51">
+    <row r="76" spans="2:9">
+      <c r="E76" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76">
+        <f>AVERAGE(F71:F75)</f>
+        <v>97556710.599999994</v>
+      </c>
+      <c r="G76">
+        <f t="shared" ref="G76" si="38">AVERAGE(G71:G75)</f>
+        <v>10731238166</v>
+      </c>
+      <c r="I76">
+        <f t="shared" ref="I76" si="39">AVERAGE(I71:I75)</f>
+        <v>0.1019283456</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="E77" t="s">
+        <v>57</v>
+      </c>
+      <c r="F77">
+        <f>_xlfn.STDEV.P(F71:F75)</f>
+        <v>12540.789314871692</v>
+      </c>
+      <c r="G77">
+        <f t="shared" ref="G77" si="40">_xlfn.STDEV.P(G71:G75)</f>
+        <v>1379486.8246358861</v>
+      </c>
+      <c r="I77">
+        <f t="shared" ref="I77" si="41">_xlfn.STDEV.P(I71:I75)</f>
+        <v>1.2841768258428581E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="E78" t="s">
+        <v>58</v>
+      </c>
+      <c r="F78">
+        <f>_xlfn.VAR.P(F71:F75)</f>
+        <v>157271396.63999999</v>
+      </c>
+      <c r="G78">
+        <f t="shared" ref="G78" si="42">_xlfn.VAR.P(G71:G75)</f>
+        <v>1902983899344</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ref="I78" si="43">_xlfn.VAR.P(I71:I75)</f>
+        <v>1.649110120031838E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="E79" t="s">
+        <v>59</v>
+      </c>
+      <c r="F79">
+        <f>((MAX(F71:F75)-MIN(F71:F75))*100)/AVERAGE(F71:F75)</f>
+        <v>3.8459681316889337E-2</v>
+      </c>
+      <c r="G79">
+        <f t="shared" ref="G79" si="44">((MAX(G71:G75)-MIN(G71:G75))*100)/AVERAGE(G71:G75)</f>
+        <v>3.8459681316889337E-2</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ref="I79" si="45">((MAX(I71:I75)-MIN(I71:I75))*100)/AVERAGE(I71:I75)</f>
+        <v>37.69361679897608</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81">
         <v>256</v>
       </c>
-      <c r="C51">
+      <c r="C81">
         <v>48828125</v>
       </c>
-      <c r="D51">
+      <c r="D81">
         <v>48828125</v>
       </c>
-      <c r="E51">
+      <c r="E81">
         <v>12304687500</v>
       </c>
-      <c r="F51">
+      <c r="F81">
         <v>48828125</v>
       </c>
-      <c r="G51">
+      <c r="G81">
         <v>11621093750</v>
       </c>
-      <c r="I51">
+      <c r="I81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
-      <c r="C52">
-        <v>48828125</v>
-      </c>
-      <c r="D52">
-        <v>48828125</v>
-      </c>
-      <c r="E52">
-        <v>12304687500</v>
-      </c>
-      <c r="F52">
-        <v>48828125</v>
-      </c>
-      <c r="G52">
-        <v>11621093750</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
-      <c r="C53">
-        <v>48828125</v>
-      </c>
-      <c r="D53">
-        <v>48828125</v>
-      </c>
-      <c r="E53">
-        <v>12304687500</v>
-      </c>
-      <c r="F53">
-        <v>48828125</v>
-      </c>
-      <c r="G53">
-        <v>11621093750</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="C54">
-        <v>48828125</v>
-      </c>
-      <c r="D54">
-        <v>48828125</v>
-      </c>
-      <c r="E54">
-        <v>12304687500</v>
-      </c>
-      <c r="F54">
-        <v>48828125</v>
-      </c>
-      <c r="G54">
-        <v>11621093750</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="C55">
-        <v>48828125</v>
-      </c>
-      <c r="D55">
-        <v>48828125</v>
-      </c>
-      <c r="E55">
-        <v>12304687500</v>
-      </c>
-      <c r="F55">
-        <v>48828125</v>
-      </c>
-      <c r="G55">
-        <v>11621093750</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57">
-        <v>512</v>
-      </c>
-      <c r="C57">
-        <v>24414063</v>
-      </c>
-      <c r="D57">
-        <v>24414063</v>
-      </c>
-      <c r="E57">
-        <v>12402344004</v>
-      </c>
-      <c r="F57">
-        <v>24414063</v>
-      </c>
-      <c r="G57">
-        <v>12060547122</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="C58">
-        <v>24414063</v>
-      </c>
-      <c r="D58">
-        <v>24414063</v>
-      </c>
-      <c r="E58">
-        <v>12402344004</v>
-      </c>
-      <c r="F58">
-        <v>24414063</v>
-      </c>
-      <c r="G58">
-        <v>12060547122</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="C59">
-        <v>24414063</v>
-      </c>
-      <c r="D59">
-        <v>24414063</v>
-      </c>
-      <c r="E59">
-        <v>12402344004</v>
-      </c>
-      <c r="F59">
-        <v>24414063</v>
-      </c>
-      <c r="G59">
-        <v>12060547122</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="C60">
-        <v>24414063</v>
-      </c>
-      <c r="D60">
-        <v>24414063</v>
-      </c>
-      <c r="E60">
-        <v>12402344004</v>
-      </c>
-      <c r="F60">
-        <v>24414063</v>
-      </c>
-      <c r="G60">
-        <v>12060547122</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="C61">
-        <v>24414063</v>
-      </c>
-      <c r="D61">
-        <v>24414063</v>
-      </c>
-      <c r="E61">
-        <v>12402344004</v>
-      </c>
-      <c r="F61">
-        <v>24414063</v>
-      </c>
-      <c r="G61">
-        <v>12060547122</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9">
-      <c r="B63">
-        <v>1024</v>
-      </c>
-      <c r="C63">
-        <v>12207032</v>
-      </c>
-      <c r="D63">
-        <v>12207032</v>
-      </c>
-      <c r="E63">
-        <v>12451172640</v>
-      </c>
-      <c r="F63">
-        <v>12207032</v>
-      </c>
-      <c r="G63">
-        <v>12280274192</v>
-      </c>
-      <c r="I63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9">
-      <c r="C64">
-        <v>12207032</v>
-      </c>
-      <c r="D64">
-        <v>12207032</v>
-      </c>
-      <c r="E64">
-        <v>12451172640</v>
-      </c>
-      <c r="F64">
-        <v>12207032</v>
-      </c>
-      <c r="G64">
-        <v>12280274192</v>
-      </c>
-      <c r="I64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="C65">
-        <v>12207032</v>
-      </c>
-      <c r="D65">
-        <v>12207032</v>
-      </c>
-      <c r="E65">
-        <v>12451172640</v>
-      </c>
-      <c r="F65">
-        <v>12207032</v>
-      </c>
-      <c r="G65">
-        <v>12280274192</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="C66">
-        <v>12207032</v>
-      </c>
-      <c r="D66">
-        <v>12207032</v>
-      </c>
-      <c r="E66">
-        <v>12451172640</v>
-      </c>
-      <c r="F66">
-        <v>12207032</v>
-      </c>
-      <c r="G66">
-        <v>12280274192</v>
-      </c>
-      <c r="I66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="C67">
-        <v>12207032</v>
-      </c>
-      <c r="D67">
-        <v>12207032</v>
-      </c>
-      <c r="E67">
-        <v>12451172640</v>
-      </c>
-      <c r="F67">
-        <v>12207032</v>
-      </c>
-      <c r="G67">
-        <v>12280274192</v>
-      </c>
-      <c r="I67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" t="s">
-        <v>49</v>
-      </c>
-      <c r="B70">
-        <v>64</v>
-      </c>
-      <c r="C70">
-        <v>195312900</v>
-      </c>
-      <c r="D70">
-        <v>195312500</v>
-      </c>
-      <c r="E70">
-        <v>11718750000</v>
-      </c>
-      <c r="F70">
-        <v>194840362</v>
-      </c>
-      <c r="G70">
-        <v>16366590408</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="0"/>
-        <v>0.24173465599999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="C71">
-        <v>195312900</v>
-      </c>
-      <c r="D71">
-        <v>195312500</v>
-      </c>
-      <c r="E71">
-        <v>11718750000</v>
-      </c>
-      <c r="F71">
-        <v>194825750</v>
-      </c>
-      <c r="G71">
-        <v>16365363000</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="0"/>
-        <v>0.24921599999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="C72">
-        <v>195312900</v>
-      </c>
-      <c r="D72">
-        <v>195312500</v>
-      </c>
-      <c r="E72">
-        <v>11718750000</v>
-      </c>
-      <c r="F72">
-        <v>194893872</v>
-      </c>
-      <c r="G72">
-        <v>16371085248</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="0"/>
-        <v>0.214337536</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="C73">
-        <v>195312900</v>
-      </c>
-      <c r="D73">
-        <v>195312500</v>
-      </c>
-      <c r="E73">
-        <v>11718750000</v>
-      </c>
-      <c r="F73">
-        <v>194827492</v>
-      </c>
-      <c r="G73">
-        <v>16365509328</v>
-      </c>
-      <c r="I73">
-        <f t="shared" ref="I73:I135" si="1">((D73-F73)*100)/D73</f>
-        <v>0.24832409599999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="C74">
-        <v>195312900</v>
-      </c>
-      <c r="D74">
-        <v>195312500</v>
-      </c>
-      <c r="E74">
-        <v>11718750000</v>
-      </c>
-      <c r="F74">
-        <v>194755466</v>
-      </c>
-      <c r="G74">
-        <v>16359459144</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="1"/>
-        <v>0.28520140799999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="B76">
-        <v>128</v>
-      </c>
-      <c r="C76">
-        <v>97656250</v>
-      </c>
-      <c r="D76">
-        <v>97656250</v>
-      </c>
-      <c r="E76">
-        <v>12109375000</v>
-      </c>
-      <c r="F76">
-        <v>97512086</v>
-      </c>
-      <c r="G76">
-        <v>14431788728</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="1"/>
-        <v>0.14762393600000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="C77">
-        <v>97656250</v>
-      </c>
-      <c r="D77">
-        <v>97656250</v>
-      </c>
-      <c r="E77">
-        <v>12109375000</v>
-      </c>
-      <c r="F77">
-        <v>97508525</v>
-      </c>
-      <c r="G77">
-        <v>14431261700</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="1"/>
-        <v>0.1512704</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="C78">
-        <v>97656250</v>
-      </c>
-      <c r="D78">
-        <v>97656250</v>
-      </c>
-      <c r="E78">
-        <v>12109375000</v>
-      </c>
-      <c r="F78">
-        <v>97526142</v>
-      </c>
-      <c r="G78">
-        <v>14433869016</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="1"/>
-        <v>0.13323059200000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="C79">
-        <v>97656250</v>
-      </c>
-      <c r="D79">
-        <v>97656250</v>
-      </c>
-      <c r="E79">
-        <v>12109375000</v>
-      </c>
-      <c r="F79">
-        <v>97519804</v>
-      </c>
-      <c r="G79">
-        <v>14432930992</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="1"/>
-        <v>0.139720704</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="C80">
-        <v>97656250</v>
-      </c>
-      <c r="D80">
-        <v>97656250</v>
-      </c>
-      <c r="E80">
-        <v>12109375000</v>
-      </c>
-      <c r="F80">
-        <v>97521448</v>
-      </c>
-      <c r="G80">
-        <v>14433174304</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="1"/>
-        <v>0.138037248</v>
-      </c>
-    </row>
     <row r="82" spans="2:9">
-      <c r="B82">
-        <v>256</v>
-      </c>
       <c r="C82">
         <v>48828125</v>
       </c>
@@ -14510,10 +14478,10 @@
         <v>48828125</v>
       </c>
       <c r="G82">
-        <v>13476562500</v>
+        <v>11621093750</v>
       </c>
       <c r="I82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -14531,10 +14499,10 @@
         <v>48828125</v>
       </c>
       <c r="G83">
-        <v>13476562500</v>
+        <v>11621093750</v>
       </c>
       <c r="I83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -14552,10 +14520,10 @@
         <v>48828125</v>
       </c>
       <c r="G84">
-        <v>13476562500</v>
+        <v>11621093750</v>
       </c>
       <c r="I84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -14573,101 +14541,81 @@
         <v>48828125</v>
       </c>
       <c r="G85">
-        <v>13476562500</v>
+        <v>11621093750</v>
       </c>
       <c r="I85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:9">
-      <c r="C86">
+      <c r="E86" t="s">
+        <v>56</v>
+      </c>
+      <c r="F86">
+        <f>AVERAGE(F81:F85)</f>
         <v>48828125</v>
       </c>
-      <c r="D86">
-        <v>48828125</v>
-      </c>
-      <c r="E86">
-        <v>12304687500</v>
-      </c>
-      <c r="F86">
-        <v>48828125</v>
-      </c>
       <c r="G86">
-        <v>13476562500</v>
+        <f t="shared" ref="G86" si="46">AVERAGE(G81:G85)</f>
+        <v>11621093750</v>
       </c>
       <c r="I86">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I86" si="47">AVERAGE(I81:I85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="E87" t="s">
+        <v>57</v>
+      </c>
+      <c r="F87">
+        <f>_xlfn.STDEV.P(F81:F85)</f>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <f t="shared" ref="G87" si="48">_xlfn.STDEV.P(G81:G85)</f>
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <f t="shared" ref="I87" si="49">_xlfn.STDEV.P(I81:I85)</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:9">
-      <c r="B88">
+      <c r="E88" t="s">
+        <v>58</v>
+      </c>
+      <c r="F88">
+        <f>_xlfn.VAR.P(F81:F85)</f>
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f t="shared" ref="G88" si="50">_xlfn.VAR.P(G81:G85)</f>
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <f t="shared" ref="I88" si="51">_xlfn.VAR.P(I81:I85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="E89" t="s">
+        <v>59</v>
+      </c>
+      <c r="F89">
+        <f>((MAX(F81:F85)-MIN(F81:F85))*100)/AVERAGE(F81:F85)</f>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f t="shared" ref="G89" si="52">((MAX(G81:G85)-MIN(G81:G85))*100)/AVERAGE(G81:G85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9">
+      <c r="B91">
         <v>512</v>
       </c>
-      <c r="C88">
-        <v>24414063</v>
-      </c>
-      <c r="D88">
-        <v>24414063</v>
-      </c>
-      <c r="E88">
-        <v>12402344004</v>
-      </c>
-      <c r="F88">
-        <v>24414063</v>
-      </c>
-      <c r="G88">
-        <v>12988281516</v>
-      </c>
-      <c r="I88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9">
-      <c r="C89">
-        <v>24414063</v>
-      </c>
-      <c r="D89">
-        <v>24414063</v>
-      </c>
-      <c r="E89">
-        <v>12402344004</v>
-      </c>
-      <c r="F89">
-        <v>24414063</v>
-      </c>
-      <c r="G89">
-        <v>12988281516</v>
-      </c>
-      <c r="I89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9">
-      <c r="C90">
-        <v>24414063</v>
-      </c>
-      <c r="D90">
-        <v>24414063</v>
-      </c>
-      <c r="E90">
-        <v>12402344004</v>
-      </c>
-      <c r="F90">
-        <v>24414063</v>
-      </c>
-      <c r="G90">
-        <v>12988281516</v>
-      </c>
-      <c r="I90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9">
       <c r="C91">
         <v>24414063</v>
       </c>
@@ -14681,10 +14629,10 @@
         <v>24414063</v>
       </c>
       <c r="G91">
-        <v>12988281516</v>
+        <v>12060547122</v>
       </c>
       <c r="I91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -14702,1007 +14650,904 @@
         <v>24414063</v>
       </c>
       <c r="G92">
-        <v>12988281516</v>
+        <v>12060547122</v>
       </c>
       <c r="I92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="C93">
+        <v>24414063</v>
+      </c>
+      <c r="D93">
+        <v>24414063</v>
+      </c>
+      <c r="E93">
+        <v>12402344004</v>
+      </c>
+      <c r="F93">
+        <v>24414063</v>
+      </c>
+      <c r="G93">
+        <v>12060547122</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:9">
-      <c r="B94">
-        <v>1024</v>
-      </c>
       <c r="C94">
-        <v>12207032</v>
+        <v>24414063</v>
       </c>
       <c r="D94">
-        <v>12207032</v>
+        <v>24414063</v>
       </c>
       <c r="E94">
-        <v>12451172640</v>
+        <v>12402344004</v>
       </c>
       <c r="F94">
-        <v>12207032</v>
+        <v>24414063</v>
       </c>
       <c r="G94">
-        <v>12744141408</v>
+        <v>12060547122</v>
       </c>
       <c r="I94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:9">
       <c r="C95">
+        <v>24414063</v>
+      </c>
+      <c r="D95">
+        <v>24414063</v>
+      </c>
+      <c r="E95">
+        <v>12402344004</v>
+      </c>
+      <c r="F95">
+        <v>24414063</v>
+      </c>
+      <c r="G95">
+        <v>12060547122</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="E96" t="s">
+        <v>56</v>
+      </c>
+      <c r="F96">
+        <f>AVERAGE(F91:F95)</f>
+        <v>24414063</v>
+      </c>
+      <c r="G96">
+        <f t="shared" ref="G96" si="53">AVERAGE(G91:G95)</f>
+        <v>12060547122</v>
+      </c>
+      <c r="I96">
+        <f t="shared" ref="I96" si="54">AVERAGE(I91:I95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="E97" t="s">
+        <v>57</v>
+      </c>
+      <c r="F97">
+        <f>_xlfn.STDEV.P(F91:F95)</f>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f t="shared" ref="G97" si="55">_xlfn.STDEV.P(G91:G95)</f>
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <f t="shared" ref="I97" si="56">_xlfn.STDEV.P(I91:I95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="E98" t="s">
+        <v>58</v>
+      </c>
+      <c r="F98">
+        <f>_xlfn.VAR.P(F91:F95)</f>
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <f t="shared" ref="G98" si="57">_xlfn.VAR.P(G91:G95)</f>
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <f t="shared" ref="I98" si="58">_xlfn.VAR.P(I91:I95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="E99" t="s">
+        <v>59</v>
+      </c>
+      <c r="F99">
+        <f>((MAX(F91:F95)-MIN(F91:F95))*100)/AVERAGE(F91:F95)</f>
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f t="shared" ref="G99" si="59">((MAX(G91:G95)-MIN(G91:G95))*100)/AVERAGE(G91:G95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9">
+      <c r="B101">
+        <v>1024</v>
+      </c>
+      <c r="C101">
         <v>12207032</v>
       </c>
-      <c r="D95">
+      <c r="D101">
         <v>12207032</v>
       </c>
-      <c r="E95">
+      <c r="E101">
         <v>12451172640</v>
       </c>
-      <c r="F95">
+      <c r="F101">
         <v>12207032</v>
       </c>
-      <c r="G95">
-        <v>12744141408</v>
-      </c>
-      <c r="I95">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9">
-      <c r="C96">
+      <c r="G101">
+        <v>12280274192</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9">
+      <c r="C102">
         <v>12207032</v>
       </c>
-      <c r="D96">
+      <c r="D102">
         <v>12207032</v>
       </c>
-      <c r="E96">
+      <c r="E102">
         <v>12451172640</v>
       </c>
-      <c r="F96">
+      <c r="F102">
         <v>12207032</v>
       </c>
-      <c r="G96">
-        <v>12744141408</v>
-      </c>
-      <c r="I96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="C97">
+      <c r="G102">
+        <v>12280274192</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9">
+      <c r="C103">
         <v>12207032</v>
       </c>
-      <c r="D97">
+      <c r="D103">
         <v>12207032</v>
       </c>
-      <c r="E97">
+      <c r="E103">
         <v>12451172640</v>
       </c>
-      <c r="F97">
+      <c r="F103">
         <v>12207032</v>
       </c>
-      <c r="G97">
-        <v>12744141408</v>
-      </c>
-      <c r="I97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="C98">
+      <c r="G103">
+        <v>12280274192</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9">
+      <c r="C104">
         <v>12207032</v>
       </c>
-      <c r="D98">
+      <c r="D104">
         <v>12207032</v>
       </c>
-      <c r="E98">
+      <c r="E104">
         <v>12451172640</v>
       </c>
-      <c r="F98">
+      <c r="F104">
         <v>12207032</v>
       </c>
-      <c r="G98">
-        <v>12744141408</v>
-      </c>
-      <c r="I98">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" t="s">
-        <v>50</v>
-      </c>
-      <c r="B101">
+      <c r="G104">
+        <v>12280274192</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9">
+      <c r="C105">
+        <v>12207032</v>
+      </c>
+      <c r="D105">
+        <v>12207032</v>
+      </c>
+      <c r="E105">
+        <v>12451172640</v>
+      </c>
+      <c r="F105">
+        <v>12207032</v>
+      </c>
+      <c r="G105">
+        <v>12280274192</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9">
+      <c r="E106" t="s">
+        <v>56</v>
+      </c>
+      <c r="F106">
+        <f>AVERAGE(F101:F105)</f>
+        <v>12207032</v>
+      </c>
+      <c r="G106">
+        <f t="shared" ref="G106" si="60">AVERAGE(G101:G105)</f>
+        <v>12280274192</v>
+      </c>
+      <c r="I106">
+        <f t="shared" ref="I106" si="61">AVERAGE(I101:I105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9">
+      <c r="E107" t="s">
+        <v>57</v>
+      </c>
+      <c r="F107">
+        <f>_xlfn.STDEV.P(F101:F105)</f>
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <f t="shared" ref="G107" si="62">_xlfn.STDEV.P(G101:G105)</f>
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <f t="shared" ref="I107" si="63">_xlfn.STDEV.P(I101:I105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9">
+      <c r="E108" t="s">
+        <v>58</v>
+      </c>
+      <c r="F108">
+        <f>_xlfn.VAR.P(F101:F105)</f>
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <f t="shared" ref="G108" si="64">_xlfn.VAR.P(G101:G105)</f>
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <f t="shared" ref="I108" si="65">_xlfn.VAR.P(I101:I105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9">
+      <c r="E109" t="s">
+        <v>59</v>
+      </c>
+      <c r="F109">
+        <f>((MAX(F101:F105)-MIN(F101:F105))*100)/AVERAGE(F101:F105)</f>
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <f t="shared" ref="G109" si="66">((MAX(G101:G105)-MIN(G101:G105))*100)/AVERAGE(G101:G105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9">
+      <c r="D112" t="s">
+        <v>60</v>
+      </c>
+      <c r="F112">
+        <f>AVERAGE(F107,F97,F87,F77,F67)</f>
+        <v>96187.074620708037</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="D113" t="s">
+        <v>61</v>
+      </c>
+      <c r="F113">
+        <f>AVERAGE(F108,F98,F88,F78,F68)</f>
+        <v>43910151503.840004</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="D114" t="s">
+        <v>62</v>
+      </c>
+      <c r="F114">
+        <f>AVERAGE(F109,F99,F89,F79,F69)</f>
+        <v>0.14861450030346707</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>49</v>
+      </c>
+      <c r="B117">
         <v>64</v>
       </c>
-      <c r="C101">
+      <c r="C117">
+        <v>195312900</v>
+      </c>
+      <c r="D117">
         <v>195312500</v>
       </c>
-      <c r="D101">
+      <c r="E117">
+        <v>11718750000</v>
+      </c>
+      <c r="F117">
+        <v>194840362</v>
+      </c>
+      <c r="G117">
+        <v>16366590408</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="0"/>
+        <v>0.24173465599999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="C118">
+        <v>195312900</v>
+      </c>
+      <c r="D118">
         <v>195312500</v>
       </c>
-      <c r="E101">
+      <c r="E118">
         <v>11718750000</v>
       </c>
-      <c r="F101">
-        <v>16170180</v>
-      </c>
-      <c r="G101">
-        <v>743937798</v>
-      </c>
-      <c r="I101">
-        <f t="shared" si="1"/>
-        <v>91.720867839999997</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="C102">
+      <c r="F118">
+        <v>194825750</v>
+      </c>
+      <c r="G118">
+        <v>16365363000</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="0"/>
+        <v>0.24921599999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="C119">
+        <v>195312900</v>
+      </c>
+      <c r="D119">
         <v>195312500</v>
       </c>
-      <c r="D102">
+      <c r="E119">
+        <v>11718750000</v>
+      </c>
+      <c r="F119">
+        <v>194893872</v>
+      </c>
+      <c r="G119">
+        <v>16371085248</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="0"/>
+        <v>0.214337536</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="C120">
+        <v>195312900</v>
+      </c>
+      <c r="D120">
         <v>195312500</v>
       </c>
-      <c r="E102">
+      <c r="E120">
         <v>11718750000</v>
       </c>
-      <c r="F102">
-        <v>16286902</v>
-      </c>
-      <c r="G102">
-        <v>749299366</v>
-      </c>
-      <c r="I102">
-        <f t="shared" si="1"/>
-        <v>91.661106176000004</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="C103">
+      <c r="F120">
+        <v>194827492</v>
+      </c>
+      <c r="G120">
+        <v>16365509328</v>
+      </c>
+      <c r="I120">
+        <f t="shared" ref="I120:I232" si="67">((D120-F120)*100)/D120</f>
+        <v>0.24832409599999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="C121">
+        <v>195312900</v>
+      </c>
+      <c r="D121">
         <v>195312500</v>
       </c>
-      <c r="D103">
-        <v>195312500</v>
-      </c>
-      <c r="E103">
+      <c r="E121">
         <v>11718750000</v>
       </c>
-      <c r="F103">
-        <v>16032374</v>
-      </c>
-      <c r="G103">
-        <v>737603936</v>
-      </c>
-      <c r="I103">
-        <f t="shared" si="1"/>
-        <v>91.791424512000006</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="C104">
-        <v>195312500</v>
-      </c>
-      <c r="D104">
-        <v>195312500</v>
-      </c>
-      <c r="E104">
-        <v>11718750000</v>
-      </c>
-      <c r="F104">
-        <v>16123510</v>
-      </c>
-      <c r="G104">
-        <v>741762200</v>
-      </c>
-      <c r="I104">
-        <f t="shared" si="1"/>
-        <v>91.744762879999996</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="C105">
-        <v>195312500</v>
-      </c>
-      <c r="D105">
-        <v>195312500</v>
-      </c>
-      <c r="E105">
-        <v>11718750000</v>
-      </c>
-      <c r="F105">
-        <v>16017244</v>
-      </c>
-      <c r="G105">
-        <v>736901896</v>
-      </c>
-      <c r="I105">
-        <f t="shared" si="1"/>
-        <v>91.799171071999993</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="B107">
+      <c r="F121">
+        <v>194755466</v>
+      </c>
+      <c r="G121">
+        <v>16359459144</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="67"/>
+        <v>0.28520140799999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="E122" t="s">
+        <v>56</v>
+      </c>
+      <c r="F122">
+        <f>AVERAGE(F117:F121)</f>
+        <v>194828588.40000001</v>
+      </c>
+      <c r="G122">
+        <f t="shared" ref="G122" si="68">AVERAGE(G117:G121)</f>
+        <v>16365601425.6</v>
+      </c>
+      <c r="I122">
+        <f t="shared" ref="I122" si="69">AVERAGE(I117:I121)</f>
+        <v>0.2477627392</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="E123" t="s">
+        <v>57</v>
+      </c>
+      <c r="F123">
+        <f>_xlfn.STDEV.P(F117:F121)</f>
+        <v>44173.997046226192</v>
+      </c>
+      <c r="G123">
+        <f t="shared" ref="G123" si="70">_xlfn.STDEV.P(G117:G121)</f>
+        <v>3710615.7518829997</v>
+      </c>
+      <c r="I123">
+        <f t="shared" ref="I123" si="71">_xlfn.STDEV.P(I117:I121)</f>
+        <v>2.2617086487667807E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="E124" t="s">
+        <v>58</v>
+      </c>
+      <c r="F124">
+        <f>_xlfn.VAR.P(F117:F121)</f>
+        <v>1951342015.0400002</v>
+      </c>
+      <c r="G124">
+        <f t="shared" ref="G124" si="72">_xlfn.VAR.P(G117:G121)</f>
+        <v>13768669258122.24</v>
+      </c>
+      <c r="I124">
+        <f t="shared" ref="I124" si="73">_xlfn.VAR.P(I117:I121)</f>
+        <v>5.1153260119064564E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="E125" t="s">
+        <v>59</v>
+      </c>
+      <c r="F125">
+        <f>((MAX(F117:F121)-MIN(F117:F121))*100)/AVERAGE(F117:F121)</f>
+        <v>7.1039882358455764E-2</v>
+      </c>
+      <c r="G125">
+        <f t="shared" ref="G125" si="74">((MAX(G117:G121)-MIN(G117:G121))*100)/AVERAGE(G117:G121)</f>
+        <v>7.1039882358455764E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="B127">
         <v>128</v>
       </c>
-      <c r="C107">
+      <c r="C127">
         <v>97656250</v>
       </c>
-      <c r="D107">
+      <c r="D127">
         <v>97656250</v>
       </c>
-      <c r="E107">
+      <c r="E127">
         <v>12109375000</v>
       </c>
-      <c r="F107">
-        <v>13885586</v>
-      </c>
-      <c r="G107">
-        <v>1527657124</v>
-      </c>
-      <c r="I107">
-        <f t="shared" si="1"/>
-        <v>85.781159935999995</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="C108">
+      <c r="F127">
+        <v>97512086</v>
+      </c>
+      <c r="G127">
+        <v>14431788728</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="67"/>
+        <v>0.14762393600000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="C128">
         <v>97656250</v>
       </c>
-      <c r="D108">
+      <c r="D128">
         <v>97656250</v>
       </c>
-      <c r="E108">
+      <c r="E128">
         <v>12109375000</v>
       </c>
-      <c r="F108">
-        <v>13855941</v>
-      </c>
-      <c r="G108">
-        <v>1524165080</v>
-      </c>
-      <c r="I108">
-        <f t="shared" si="1"/>
-        <v>85.811516416000003</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="C109">
+      <c r="F128">
+        <v>97508525</v>
+      </c>
+      <c r="G128">
+        <v>14431261700</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="67"/>
+        <v>0.1512704</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9">
+      <c r="C129">
         <v>97656250</v>
       </c>
-      <c r="D109">
+      <c r="D129">
         <v>97656250</v>
       </c>
-      <c r="E109">
+      <c r="E129">
         <v>12109375000</v>
       </c>
-      <c r="F109">
-        <v>13882873</v>
-      </c>
-      <c r="G109">
-        <v>1527127882</v>
-      </c>
-      <c r="I109">
-        <f t="shared" si="1"/>
-        <v>85.783938047999996</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="C110">
+      <c r="F129">
+        <v>97526142</v>
+      </c>
+      <c r="G129">
+        <v>14433869016</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="67"/>
+        <v>0.13323059200000001</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9">
+      <c r="C130">
         <v>97656250</v>
       </c>
-      <c r="D110">
+      <c r="D130">
         <v>97656250</v>
       </c>
-      <c r="E110">
+      <c r="E130">
         <v>12109375000</v>
       </c>
-      <c r="F110">
-        <v>13884866</v>
-      </c>
-      <c r="G110">
-        <v>1527341745</v>
-      </c>
-      <c r="I110">
-        <f t="shared" si="1"/>
-        <v>85.781897216000004</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="C111">
+      <c r="F130">
+        <v>97519804</v>
+      </c>
+      <c r="G130">
+        <v>14432930992</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="67"/>
+        <v>0.139720704</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9">
+      <c r="C131">
         <v>97656250</v>
       </c>
-      <c r="D111">
+      <c r="D131">
         <v>97656250</v>
       </c>
-      <c r="E111">
+      <c r="E131">
         <v>12109375000</v>
       </c>
-      <c r="F111">
-        <v>13805109</v>
-      </c>
-      <c r="G111">
-        <v>1518573196</v>
-      </c>
-      <c r="I111">
-        <f t="shared" si="1"/>
-        <v>85.863568384000004</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9">
-      <c r="B113">
+      <c r="F131">
+        <v>97521448</v>
+      </c>
+      <c r="G131">
+        <v>14433174304</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="67"/>
+        <v>0.138037248</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9">
+      <c r="E132" t="s">
+        <v>56</v>
+      </c>
+      <c r="F132">
+        <f>AVERAGE(F127:F131)</f>
+        <v>97517601</v>
+      </c>
+      <c r="G132">
+        <f t="shared" ref="G132" si="75">AVERAGE(G127:G131)</f>
+        <v>14432604948</v>
+      </c>
+      <c r="I132">
+        <f t="shared" ref="I132" si="76">AVERAGE(I127:I131)</f>
+        <v>0.14197657600000002</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9">
+      <c r="E133" t="s">
+        <v>57</v>
+      </c>
+      <c r="F133">
+        <f>_xlfn.STDEV.P(F127:F131)</f>
+        <v>6409.216800826759</v>
+      </c>
+      <c r="G133">
+        <f t="shared" ref="G133" si="77">_xlfn.STDEV.P(G127:G131)</f>
+        <v>948564.08652236033</v>
+      </c>
+      <c r="I133">
+        <f t="shared" ref="I133" si="78">_xlfn.STDEV.P(I127:I131)</f>
+        <v>6.5630380040466009E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9">
+      <c r="E134" t="s">
+        <v>58</v>
+      </c>
+      <c r="F134">
+        <f>_xlfn.VAR.P(F127:F131)</f>
+        <v>41078060</v>
+      </c>
+      <c r="G134">
+        <f t="shared" ref="G134" si="79">_xlfn.VAR.P(G127:G131)</f>
+        <v>899773826240</v>
+      </c>
+      <c r="I134">
+        <f t="shared" ref="I134" si="80">_xlfn.VAR.P(I127:I131)</f>
+        <v>4.3073467842559986E-5</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9">
+      <c r="E135" t="s">
+        <v>59</v>
+      </c>
+      <c r="F135">
+        <f>((MAX(F127:F131)-MIN(F127:F131))*100)/AVERAGE(F127:F131)</f>
+        <v>1.8065456716885395E-2</v>
+      </c>
+      <c r="G135">
+        <f t="shared" ref="G135" si="81">((MAX(G127:G131)-MIN(G127:G131))*100)/AVERAGE(G127:G131)</f>
+        <v>1.8065456716885395E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9">
+      <c r="B137">
         <v>256</v>
       </c>
-      <c r="C113">
+      <c r="C137">
         <v>48828125</v>
       </c>
-      <c r="D113">
+      <c r="D137">
         <v>48828125</v>
       </c>
-      <c r="E113">
+      <c r="E137">
         <v>12304687500</v>
       </c>
-      <c r="F113">
-        <v>12538320</v>
-      </c>
-      <c r="G113">
-        <v>2984065400</v>
-      </c>
-      <c r="I113">
-        <f t="shared" si="1"/>
-        <v>74.321520640000003</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9">
-      <c r="C114">
+      <c r="F137">
         <v>48828125</v>
       </c>
-      <c r="D114">
+      <c r="G137">
+        <v>13476562500</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9">
+      <c r="C138">
         <v>48828125</v>
       </c>
-      <c r="E114">
+      <c r="D138">
+        <v>48828125</v>
+      </c>
+      <c r="E138">
         <v>12304687500</v>
       </c>
-      <c r="F114">
-        <v>12603316</v>
-      </c>
-      <c r="G114">
-        <v>2999549560</v>
-      </c>
-      <c r="I114">
-        <f t="shared" si="1"/>
-        <v>74.188408831999993</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9">
-      <c r="C115">
+      <c r="F138">
         <v>48828125</v>
       </c>
-      <c r="D115">
+      <c r="G138">
+        <v>13476562500</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9">
+      <c r="C139">
         <v>48828125</v>
       </c>
-      <c r="E115">
+      <c r="D139">
+        <v>48828125</v>
+      </c>
+      <c r="E139">
         <v>12304687500</v>
       </c>
-      <c r="F115">
-        <v>12591498</v>
-      </c>
-      <c r="G115">
-        <v>2996732683</v>
-      </c>
-      <c r="I115">
-        <f t="shared" si="1"/>
-        <v>74.212612096000001</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9">
-      <c r="C116">
+      <c r="F139">
         <v>48828125</v>
       </c>
-      <c r="D116">
+      <c r="G139">
+        <v>13476562500</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9">
+      <c r="C140">
         <v>48828125</v>
       </c>
-      <c r="E116">
+      <c r="D140">
+        <v>48828125</v>
+      </c>
+      <c r="E140">
         <v>12304687500</v>
       </c>
-      <c r="F116">
-        <v>12568710</v>
-      </c>
-      <c r="G116">
-        <v>2991304128</v>
-      </c>
-      <c r="I116">
-        <f t="shared" si="1"/>
-        <v>74.259281920000006</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9">
-      <c r="C117">
+      <c r="F140">
         <v>48828125</v>
       </c>
-      <c r="D117">
+      <c r="G140">
+        <v>13476562500</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9">
+      <c r="C141">
         <v>48828125</v>
       </c>
-      <c r="E117">
+      <c r="D141">
+        <v>48828125</v>
+      </c>
+      <c r="E141">
         <v>12304687500</v>
       </c>
-      <c r="F117">
-        <v>12513324</v>
-      </c>
-      <c r="G117">
-        <v>2978118808</v>
-      </c>
-      <c r="I117">
-        <f t="shared" si="1"/>
-        <v>74.372712448000001</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9">
-      <c r="B119">
+      <c r="F141">
+        <v>48828125</v>
+      </c>
+      <c r="G141">
+        <v>13476562500</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9">
+      <c r="E142" t="s">
+        <v>56</v>
+      </c>
+      <c r="F142">
+        <f>AVERAGE(F137:F141)</f>
+        <v>48828125</v>
+      </c>
+      <c r="G142">
+        <f t="shared" ref="G142" si="82">AVERAGE(G137:G141)</f>
+        <v>13476562500</v>
+      </c>
+      <c r="I142">
+        <f t="shared" ref="I142" si="83">AVERAGE(I137:I141)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9">
+      <c r="E143" t="s">
+        <v>57</v>
+      </c>
+      <c r="F143">
+        <f>_xlfn.STDEV.P(F137:F141)</f>
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <f t="shared" ref="G143" si="84">_xlfn.STDEV.P(G137:G141)</f>
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <f t="shared" ref="I143" si="85">_xlfn.STDEV.P(I137:I141)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9">
+      <c r="E144" t="s">
+        <v>58</v>
+      </c>
+      <c r="F144">
+        <f>_xlfn.VAR.P(F137:F141)</f>
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <f t="shared" ref="G144" si="86">_xlfn.VAR.P(G137:G141)</f>
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <f t="shared" ref="I144" si="87">_xlfn.VAR.P(I137:I141)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9">
+      <c r="E145" t="s">
+        <v>59</v>
+      </c>
+      <c r="F145">
+        <f>((MAX(F137:F141)-MIN(F137:F141))*100)/AVERAGE(F137:F141)</f>
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <f t="shared" ref="G145" si="88">((MAX(G137:G141)-MIN(G137:G141))*100)/AVERAGE(G137:G141)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9">
+      <c r="B147">
         <v>512</v>
       </c>
-      <c r="C119">
+      <c r="C147">
         <v>24414063</v>
       </c>
-      <c r="D119">
+      <c r="D147">
         <v>24414063</v>
       </c>
-      <c r="E119">
+      <c r="E147">
         <v>12402344004</v>
       </c>
-      <c r="F119">
-        <v>11527176</v>
-      </c>
-      <c r="G119">
-        <v>5693825512</v>
-      </c>
-      <c r="I119">
-        <f t="shared" si="1"/>
-        <v>52.784688070969587</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9">
-      <c r="C120">
+      <c r="F147">
         <v>24414063</v>
       </c>
-      <c r="D120">
+      <c r="G147">
+        <v>12988281516</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9">
+      <c r="C148">
         <v>24414063</v>
       </c>
-      <c r="E120">
+      <c r="D148">
+        <v>24414063</v>
+      </c>
+      <c r="E148">
         <v>12402344004</v>
       </c>
-      <c r="F120">
-        <v>11636399</v>
-      </c>
-      <c r="G120">
-        <v>5748155433</v>
-      </c>
-      <c r="I120">
-        <f t="shared" si="1"/>
-        <v>52.337310672131878</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9">
-      <c r="C121">
+      <c r="F148">
         <v>24414063</v>
       </c>
-      <c r="D121">
-        <v>24414063</v>
-      </c>
-      <c r="E121">
-        <v>12402344004</v>
-      </c>
-      <c r="F121">
-        <v>11572927</v>
-      </c>
-      <c r="G121">
-        <v>5716893397</v>
-      </c>
-      <c r="I121">
-        <f t="shared" si="1"/>
-        <v>52.597291978807462</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9">
-      <c r="C122">
-        <v>24414063</v>
-      </c>
-      <c r="D122">
-        <v>24414063</v>
-      </c>
-      <c r="E122">
-        <v>12402344004</v>
-      </c>
-      <c r="F122">
-        <v>11674107</v>
-      </c>
-      <c r="G122">
-        <v>5766859699</v>
-      </c>
-      <c r="I122">
-        <f t="shared" si="1"/>
-        <v>52.182858707295054</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9">
-      <c r="C123">
-        <v>24414063</v>
-      </c>
-      <c r="D123">
-        <v>24414063</v>
-      </c>
-      <c r="E123">
-        <v>12402344004</v>
-      </c>
-      <c r="F123">
-        <v>11597755</v>
-      </c>
-      <c r="G123">
-        <v>5729066942</v>
-      </c>
-      <c r="I123">
-        <f t="shared" si="1"/>
-        <v>52.495596492890186</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9">
-      <c r="B125">
-        <v>1024</v>
-      </c>
-      <c r="C125">
-        <v>12207032</v>
-      </c>
-      <c r="D125">
-        <v>12207032</v>
-      </c>
-      <c r="E125">
-        <v>12451172640</v>
-      </c>
-      <c r="F125">
-        <v>10710960</v>
-      </c>
-      <c r="G125">
-        <v>10774643694</v>
-      </c>
-      <c r="I125">
-        <f t="shared" si="1"/>
-        <v>12.255821071002353</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9">
-      <c r="C126">
-        <v>12207032</v>
-      </c>
-      <c r="D126">
-        <v>12207032</v>
-      </c>
-      <c r="E126">
-        <v>12451172640</v>
-      </c>
-      <c r="F126">
-        <v>10836219</v>
-      </c>
-      <c r="G126">
-        <v>10900819213</v>
-      </c>
-      <c r="I126">
-        <f t="shared" si="1"/>
-        <v>11.229699406047269</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9">
-      <c r="C127">
-        <v>12207032</v>
-      </c>
-      <c r="D127">
-        <v>12207032</v>
-      </c>
-      <c r="E127">
-        <v>12451172640</v>
-      </c>
-      <c r="F127">
-        <v>10664068</v>
-      </c>
-      <c r="G127">
-        <v>10727661111</v>
-      </c>
-      <c r="I127">
-        <f t="shared" si="1"/>
-        <v>12.639960311400838</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9">
-      <c r="C128">
-        <v>12207032</v>
-      </c>
-      <c r="D128">
-        <v>12207032</v>
-      </c>
-      <c r="E128">
-        <v>12451172640</v>
-      </c>
-      <c r="F128">
-        <v>10758884</v>
-      </c>
-      <c r="G128">
-        <v>10822883989</v>
-      </c>
-      <c r="I128">
-        <f t="shared" si="1"/>
-        <v>11.863227687123292</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="C129">
-        <v>12207032</v>
-      </c>
-      <c r="D129">
-        <v>12207032</v>
-      </c>
-      <c r="E129">
-        <v>12451172640</v>
-      </c>
-      <c r="F129">
-        <v>10852286</v>
-      </c>
-      <c r="G129">
-        <v>10916848797</v>
-      </c>
-      <c r="I129">
-        <f t="shared" si="1"/>
-        <v>11.098078550134053</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" t="s">
-        <v>51</v>
-      </c>
-      <c r="B131">
-        <v>64</v>
-      </c>
-      <c r="C131">
-        <v>195312500</v>
-      </c>
-      <c r="D131">
-        <v>195312500</v>
-      </c>
-      <c r="E131">
-        <v>11718750000</v>
-      </c>
-      <c r="F131">
-        <v>149990607</v>
-      </c>
-      <c r="G131">
-        <v>6899567922</v>
-      </c>
-      <c r="I131">
-        <f t="shared" si="1"/>
-        <v>23.204809216000001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="C132">
-        <v>195312500</v>
-      </c>
-      <c r="D132">
-        <v>195312500</v>
-      </c>
-      <c r="E132">
-        <v>11718750000</v>
-      </c>
-      <c r="F132">
-        <v>148937228</v>
-      </c>
-      <c r="G132">
-        <f>F132*(64-18)</f>
-        <v>6851112488</v>
-      </c>
-      <c r="I132">
-        <f t="shared" si="1"/>
-        <v>23.744139264000001</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="C133">
-        <v>195312500</v>
-      </c>
-      <c r="D133">
-        <v>195312500</v>
-      </c>
-      <c r="E133">
-        <v>11718750000</v>
-      </c>
-      <c r="F133">
-        <v>150492384</v>
-      </c>
-      <c r="G133">
-        <f t="shared" ref="G133:G135" si="2">F133*(64-18)</f>
-        <v>6922649664</v>
-      </c>
-      <c r="I133">
-        <f t="shared" si="1"/>
-        <v>22.947899392</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="C134">
-        <v>195312500</v>
-      </c>
-      <c r="D134">
-        <v>195312500</v>
-      </c>
-      <c r="E134">
-        <v>11718750000</v>
-      </c>
-      <c r="F134">
-        <v>149737249</v>
-      </c>
-      <c r="G134">
-        <f t="shared" si="2"/>
-        <v>6887913454</v>
-      </c>
-      <c r="I134">
-        <f t="shared" si="1"/>
-        <v>23.334528511999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="C135">
-        <v>195312500</v>
-      </c>
-      <c r="D135">
-        <v>195312500</v>
-      </c>
-      <c r="E135">
-        <v>11718750000</v>
-      </c>
-      <c r="F135">
-        <v>150113454</v>
-      </c>
-      <c r="G135">
-        <f t="shared" si="2"/>
-        <v>6905218884</v>
-      </c>
-      <c r="I135">
-        <f t="shared" si="1"/>
-        <v>23.141911552</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="B137">
-        <v>128</v>
-      </c>
-      <c r="C137">
-        <v>97656250</v>
-      </c>
-      <c r="D137">
-        <v>97656250</v>
-      </c>
-      <c r="E137">
-        <v>12109375000</v>
-      </c>
-      <c r="F137">
-        <v>97589676</v>
-      </c>
-      <c r="G137">
-        <v>10734864360</v>
-      </c>
-      <c r="I137">
-        <f t="shared" ref="I137:I190" si="3">((D137-F137)*100)/D137</f>
-        <v>6.8171776000000003E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="C138">
-        <v>97656250</v>
-      </c>
-      <c r="D138">
-        <v>97656250</v>
-      </c>
-      <c r="E138">
-        <v>12109375000</v>
-      </c>
-      <c r="F138">
-        <v>97523452</v>
-      </c>
-      <c r="G138">
-        <f>F138*(128-18)</f>
-        <v>10727579720</v>
-      </c>
-      <c r="I138">
-        <f t="shared" si="3"/>
-        <v>0.135985152</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="C139">
-        <v>97656250</v>
-      </c>
-      <c r="D139">
-        <v>97656250</v>
-      </c>
-      <c r="E139">
-        <v>12109375000</v>
-      </c>
-      <c r="F139">
-        <v>97544553</v>
-      </c>
-      <c r="G139">
-        <f t="shared" ref="G139:G141" si="4">F139*(128-18)</f>
-        <v>10729900830</v>
-      </c>
-      <c r="I139">
-        <f t="shared" si="3"/>
-        <v>0.114377728</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="C140">
-        <v>97656250</v>
-      </c>
-      <c r="D140">
-        <v>97656250</v>
-      </c>
-      <c r="E140">
-        <v>12109375000</v>
-      </c>
-      <c r="F140">
-        <v>97428554</v>
-      </c>
-      <c r="G140">
-        <f t="shared" si="4"/>
-        <v>10717140940</v>
-      </c>
-      <c r="I140">
-        <f t="shared" si="3"/>
-        <v>0.233160704</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="C141">
-        <v>97656250</v>
-      </c>
-      <c r="D141">
-        <v>97656250</v>
-      </c>
-      <c r="E141">
-        <v>12109375000</v>
-      </c>
-      <c r="F141">
-        <v>97534583</v>
-      </c>
-      <c r="G141">
-        <f t="shared" si="4"/>
-        <v>10728804130</v>
-      </c>
-      <c r="I141">
-        <f t="shared" si="3"/>
-        <v>0.124587008</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="B143">
-        <v>256</v>
-      </c>
-      <c r="C143">
-        <v>48828125</v>
-      </c>
-      <c r="D143">
-        <v>48828125</v>
-      </c>
-      <c r="E143">
-        <v>12304687500</v>
-      </c>
-      <c r="F143">
-        <v>48826405</v>
-      </c>
-      <c r="G143">
-        <v>11620684390</v>
-      </c>
-      <c r="I143">
-        <f t="shared" si="3"/>
-        <v>3.5225600000000001E-3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="C144">
-        <v>48828125</v>
-      </c>
-      <c r="D144">
-        <v>48828125</v>
-      </c>
-      <c r="E144">
-        <v>12304687500</v>
-      </c>
-      <c r="F144">
-        <v>48821458</v>
-      </c>
-      <c r="G144">
-        <f>F144*(256-18)</f>
-        <v>11619507004</v>
-      </c>
-      <c r="I144">
-        <f t="shared" si="3"/>
-        <v>1.3654016E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9">
-      <c r="C145">
-        <v>48828125</v>
-      </c>
-      <c r="D145">
-        <v>48828125</v>
-      </c>
-      <c r="E145">
-        <v>12304687500</v>
-      </c>
-      <c r="F145">
-        <v>48783458</v>
-      </c>
-      <c r="G145">
-        <f t="shared" ref="G145:G147" si="5">F145*(256-18)</f>
-        <v>11610463004</v>
-      </c>
-      <c r="I145">
-        <f t="shared" si="3"/>
-        <v>9.1478015999999995E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9">
-      <c r="C146">
-        <v>48828125</v>
-      </c>
-      <c r="D146">
-        <v>48828125</v>
-      </c>
-      <c r="E146">
-        <v>12304687500</v>
-      </c>
-      <c r="F146">
-        <v>48713458</v>
-      </c>
-      <c r="G146">
-        <f t="shared" si="5"/>
-        <v>11593803004</v>
-      </c>
-      <c r="I146">
-        <f t="shared" si="3"/>
-        <v>0.23483801600000001</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9">
-      <c r="C147">
-        <v>48828125</v>
-      </c>
-      <c r="D147">
-        <v>48828125</v>
-      </c>
-      <c r="E147">
-        <v>12304687500</v>
-      </c>
-      <c r="F147">
-        <v>48750134</v>
-      </c>
-      <c r="G147">
-        <f t="shared" si="5"/>
-        <v>11602531892</v>
-      </c>
-      <c r="I147">
-        <f t="shared" si="3"/>
-        <v>0.15972556800000001</v>
+      <c r="G148">
+        <v>12988281516</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="67"/>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="2:9">
-      <c r="B149">
-        <v>512</v>
-      </c>
       <c r="C149">
         <v>24414063</v>
       </c>
@@ -15713,14 +15558,14 @@
         <v>12402344004</v>
       </c>
       <c r="F149">
-        <v>24410902</v>
+        <v>24414063</v>
       </c>
       <c r="G149">
-        <v>12058985588</v>
+        <v>12988281516</v>
       </c>
       <c r="I149">
-        <f t="shared" si="3"/>
-        <v>1.2947455734836107E-2</v>
+        <f t="shared" si="67"/>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="2:9">
@@ -15734,15 +15579,14 @@
         <v>12402344004</v>
       </c>
       <c r="F150">
-        <v>24397858</v>
+        <v>24414063</v>
       </c>
       <c r="G150">
-        <f>F150*(512-18)</f>
-        <v>12052541852</v>
+        <v>12988281516</v>
       </c>
       <c r="I150">
-        <f t="shared" si="3"/>
-        <v>6.6375678640626101E-2</v>
+        <f t="shared" si="67"/>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="2:9">
@@ -15756,108 +15600,84 @@
         <v>12402344004</v>
       </c>
       <c r="F151">
-        <v>24404872</v>
+        <v>24414063</v>
       </c>
       <c r="G151">
-        <f t="shared" ref="G151:G153" si="6">F151*(512-18)</f>
-        <v>12056006768</v>
+        <v>12988281516</v>
       </c>
       <c r="I151">
-        <f t="shared" si="3"/>
-        <v>3.7646335229003056E-2</v>
+        <f t="shared" si="67"/>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="2:9">
-      <c r="C152">
+      <c r="E152" t="s">
+        <v>56</v>
+      </c>
+      <c r="F152">
+        <f>AVERAGE(F147:F151)</f>
         <v>24414063</v>
       </c>
-      <c r="D152">
-        <v>24414063</v>
-      </c>
-      <c r="E152">
-        <v>12402344004</v>
-      </c>
-      <c r="F152">
-        <v>24387273</v>
-      </c>
       <c r="G152">
-        <f t="shared" si="6"/>
-        <v>12047312862</v>
+        <f t="shared" ref="G152" si="89">AVERAGE(G147:G151)</f>
+        <v>12988281516</v>
       </c>
       <c r="I152">
-        <f t="shared" si="3"/>
-        <v>0.10973183775269196</v>
+        <f t="shared" ref="I152" si="90">AVERAGE(I147:I151)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="2:9">
-      <c r="C153">
-        <v>24414063</v>
-      </c>
-      <c r="D153">
-        <v>24414063</v>
-      </c>
-      <c r="E153">
-        <v>12402344004</v>
+      <c r="E153" t="s">
+        <v>57</v>
       </c>
       <c r="F153">
-        <v>24398281</v>
+        <f>_xlfn.STDEV.P(F147:F151)</f>
+        <v>0</v>
       </c>
       <c r="G153">
-        <f t="shared" si="6"/>
-        <v>12052750814</v>
+        <f t="shared" ref="G153" si="91">_xlfn.STDEV.P(G147:G151)</f>
+        <v>0</v>
       </c>
       <c r="I153">
-        <f t="shared" si="3"/>
-        <v>6.4643070676109915E-2</v>
+        <f t="shared" ref="I153" si="92">_xlfn.STDEV.P(I147:I151)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9">
+      <c r="E154" t="s">
+        <v>58</v>
+      </c>
+      <c r="F154">
+        <f>_xlfn.VAR.P(F147:F151)</f>
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <f t="shared" ref="G154" si="93">_xlfn.VAR.P(G147:G151)</f>
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <f t="shared" ref="I154" si="94">_xlfn.VAR.P(I147:I151)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="2:9">
-      <c r="B155">
+      <c r="E155" t="s">
+        <v>59</v>
+      </c>
+      <c r="F155">
+        <f>((MAX(F147:F151)-MIN(F147:F151))*100)/AVERAGE(F147:F151)</f>
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <f t="shared" ref="G155" si="95">((MAX(G147:G151)-MIN(G147:G151))*100)/AVERAGE(G147:G151)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9">
+      <c r="B157">
         <v>1024</v>
       </c>
-      <c r="C155">
-        <v>12207032</v>
-      </c>
-      <c r="D155">
-        <v>12207032</v>
-      </c>
-      <c r="E155">
-        <v>12451172640</v>
-      </c>
-      <c r="F155">
-        <v>12205877</v>
-      </c>
-      <c r="G155">
-        <v>12279112262</v>
-      </c>
-      <c r="I155">
-        <f t="shared" si="3"/>
-        <v>9.461759418669502E-3</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9">
-      <c r="C156">
-        <v>12207032</v>
-      </c>
-      <c r="D156">
-        <v>12207032</v>
-      </c>
-      <c r="E156">
-        <v>12451172640</v>
-      </c>
-      <c r="F156">
-        <v>12188428</v>
-      </c>
-      <c r="G156">
-        <f>F156*(1024-18)</f>
-        <v>12261558568</v>
-      </c>
-      <c r="I156">
-        <f t="shared" si="3"/>
-        <v>0.15240395863630077</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9">
       <c r="C157">
         <v>12207032</v>
       </c>
@@ -15868,15 +15688,14 @@
         <v>12451172640</v>
       </c>
       <c r="F157">
-        <v>12200683</v>
+        <v>12207032</v>
       </c>
       <c r="G157">
-        <f t="shared" ref="G157:G159" si="7">F157*(1024-18)</f>
-        <v>12273887098</v>
+        <v>12744141408</v>
       </c>
       <c r="I157">
-        <f t="shared" si="3"/>
-        <v>5.2011004804443865E-2</v>
+        <f t="shared" si="67"/>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="2:9">
@@ -15890,15 +15709,14 @@
         <v>12451172640</v>
       </c>
       <c r="F158">
-        <v>12196781</v>
+        <v>12207032</v>
       </c>
       <c r="G158">
-        <f t="shared" si="7"/>
-        <v>12269961686</v>
+        <v>12744141408</v>
       </c>
       <c r="I158">
-        <f t="shared" si="3"/>
-        <v>8.3976186840503078E-2</v>
+        <f t="shared" si="67"/>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="2:9">
@@ -15912,563 +15730,2815 @@
         <v>12451172640</v>
       </c>
       <c r="F159">
-        <v>12203484</v>
+        <v>12207032</v>
       </c>
       <c r="G159">
-        <f t="shared" si="7"/>
-        <v>12276704904</v>
+        <v>12744141408</v>
       </c>
       <c r="I159">
-        <f t="shared" si="3"/>
-        <v>2.9065214214233238E-2</v>
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9">
+      <c r="C160">
+        <v>12207032</v>
+      </c>
+      <c r="D160">
+        <v>12207032</v>
+      </c>
+      <c r="E160">
+        <v>12451172640</v>
+      </c>
+      <c r="F160">
+        <v>12207032</v>
+      </c>
+      <c r="G160">
+        <v>12744141408</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="C161">
+        <v>12207032</v>
+      </c>
+      <c r="D161">
+        <v>12207032</v>
+      </c>
+      <c r="E161">
+        <v>12451172640</v>
+      </c>
+      <c r="F161">
+        <v>12207032</v>
+      </c>
+      <c r="G161">
+        <v>12744141408</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="67"/>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" t="s">
-        <v>52</v>
-      </c>
-      <c r="B162" t="s">
+      <c r="E162" t="s">
+        <v>56</v>
+      </c>
+      <c r="F162">
+        <f>AVERAGE(F157:F161)</f>
+        <v>12207032</v>
+      </c>
+      <c r="G162">
+        <f t="shared" ref="G162" si="96">AVERAGE(G157:G161)</f>
+        <v>12744141408</v>
+      </c>
+      <c r="I162">
+        <f t="shared" ref="I162" si="97">AVERAGE(I157:I161)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="E163" t="s">
+        <v>57</v>
+      </c>
+      <c r="F163">
+        <f>_xlfn.STDEV.P(F157:F161)</f>
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <f t="shared" ref="G163" si="98">_xlfn.STDEV.P(G157:G161)</f>
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <f t="shared" ref="I163" si="99">_xlfn.STDEV.P(I157:I161)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="E164" t="s">
+        <v>58</v>
+      </c>
+      <c r="F164">
+        <f>_xlfn.VAR.P(F157:F161)</f>
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <f t="shared" ref="G164" si="100">_xlfn.VAR.P(G157:G161)</f>
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <f t="shared" ref="I164" si="101">_xlfn.VAR.P(I157:I161)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="E165" t="s">
+        <v>59</v>
+      </c>
+      <c r="F165">
+        <f>((MAX(F157:F161)-MIN(F157:F161))*100)/AVERAGE(F157:F161)</f>
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <f t="shared" ref="G165" si="102">((MAX(G157:G161)-MIN(G157:G161))*100)/AVERAGE(G157:G161)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="D168" t="s">
+        <v>60</v>
+      </c>
+      <c r="F168">
+        <f>AVERAGE(F163,F153,F143,F133,F123)</f>
+        <v>10116.642769410591</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="D169" t="s">
+        <v>61</v>
+      </c>
+      <c r="F169">
+        <f>AVERAGE(F164,F154,F144,F134,F124)</f>
+        <v>398484015.00800002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="D170" t="s">
+        <v>62</v>
+      </c>
+      <c r="F170">
+        <f>AVERAGE(F165,F155,F145,F135,F125)</f>
+        <v>1.7821067815068231E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" t="s">
         <v>50</v>
       </c>
-      <c r="C162">
-        <v>65273920</v>
-      </c>
-      <c r="D162">
-        <v>65273920</v>
-      </c>
-      <c r="E162">
-        <v>11099048895</v>
-      </c>
-      <c r="F162">
-        <v>6036055</v>
-      </c>
-      <c r="G162">
-        <v>1107717974</v>
-      </c>
-      <c r="I162">
-        <f t="shared" si="3"/>
-        <v>90.752730952882871</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
-      <c r="C163">
-        <v>65273920</v>
-      </c>
-      <c r="D163">
-        <v>65273920</v>
-      </c>
-      <c r="E163">
-        <v>11099048895</v>
-      </c>
-      <c r="F163">
-        <v>6207922</v>
-      </c>
-      <c r="G163">
-        <v>1141468640</v>
-      </c>
-      <c r="I163">
-        <f t="shared" si="3"/>
-        <v>90.489429775322208</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
-      <c r="C164">
-        <v>65273920</v>
-      </c>
-      <c r="D164">
-        <v>65273920</v>
-      </c>
-      <c r="E164">
-        <v>11099048895</v>
-      </c>
-      <c r="F164">
-        <v>6157488</v>
-      </c>
-      <c r="G164">
-        <v>1127051543</v>
-      </c>
-      <c r="I164">
-        <f t="shared" si="3"/>
-        <v>90.566694937273567</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
-      <c r="C165">
-        <v>65273920</v>
-      </c>
-      <c r="D165">
-        <v>65273920</v>
-      </c>
-      <c r="E165">
-        <v>11099048895</v>
-      </c>
-      <c r="F165">
-        <v>5872718</v>
-      </c>
-      <c r="G165">
-        <v>1083165358</v>
-      </c>
-      <c r="I165">
-        <f t="shared" si="3"/>
-        <v>91.002964124109596</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
-      <c r="C166">
-        <v>65273920</v>
-      </c>
-      <c r="D166">
-        <v>65273920</v>
-      </c>
-      <c r="E166">
-        <v>11099048895</v>
-      </c>
-      <c r="F166">
-        <v>5894182</v>
-      </c>
-      <c r="G166">
-        <v>1089355468</v>
-      </c>
-      <c r="I166">
-        <f t="shared" si="3"/>
-        <v>90.970081159519765</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
-      <c r="B168" t="s">
-        <v>47</v>
-      </c>
-      <c r="C168">
-        <v>65273920</v>
-      </c>
-      <c r="D168">
-        <v>65273920</v>
-      </c>
-      <c r="E168">
-        <v>11099048895</v>
-      </c>
-      <c r="F168">
-        <v>65273920</v>
-      </c>
-      <c r="G168">
-        <v>10141990393</v>
-      </c>
-      <c r="I168">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
-      <c r="C169">
-        <v>65273920</v>
-      </c>
-      <c r="D169">
-        <v>65273920</v>
-      </c>
-      <c r="E169">
-        <v>11099048895</v>
-      </c>
-      <c r="F169">
-        <v>65130822</v>
-      </c>
-      <c r="G169">
-        <v>10119502981</v>
-      </c>
-      <c r="I169">
-        <f t="shared" si="3"/>
-        <v>0.21922691329094376</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
-      <c r="C170">
-        <v>65273920</v>
-      </c>
-      <c r="D170">
-        <v>65273920</v>
-      </c>
-      <c r="E170">
-        <v>11099048895</v>
-      </c>
-      <c r="F170">
-        <v>65273920</v>
-      </c>
-      <c r="G170">
-        <v>10141969283</v>
-      </c>
-      <c r="I170">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
-      <c r="C171">
-        <v>65273920</v>
-      </c>
-      <c r="D171">
-        <v>65273920</v>
-      </c>
-      <c r="E171">
-        <v>11099048895</v>
-      </c>
-      <c r="F171">
-        <v>65273920</v>
-      </c>
-      <c r="G171">
-        <v>10141969283</v>
-      </c>
-      <c r="I171">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
-      <c r="C172">
-        <v>65273920</v>
-      </c>
-      <c r="D172">
-        <v>65273920</v>
-      </c>
-      <c r="E172">
-        <v>11099048895</v>
-      </c>
-      <c r="F172">
-        <v>65273920</v>
-      </c>
-      <c r="G172">
-        <v>10141969283</v>
-      </c>
-      <c r="I172">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="B173">
+        <v>64</v>
+      </c>
+      <c r="C173">
+        <v>195312500</v>
+      </c>
+      <c r="D173">
+        <v>195312500</v>
+      </c>
+      <c r="E173">
+        <v>11718750000</v>
+      </c>
+      <c r="F173">
+        <v>16170180</v>
+      </c>
+      <c r="G173">
+        <v>743937798</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="67"/>
+        <v>91.720867839999997</v>
       </c>
     </row>
     <row r="174" spans="1:9">
-      <c r="B174" t="s">
-        <v>51</v>
-      </c>
       <c r="C174">
-        <v>65273920</v>
+        <v>195312500</v>
       </c>
       <c r="D174">
-        <v>65273920</v>
+        <v>195312500</v>
       </c>
       <c r="E174">
-        <v>11099048895</v>
+        <v>11718750000</v>
       </c>
       <c r="F174">
-        <v>65254337</v>
+        <v>16286902</v>
       </c>
       <c r="G174">
-        <f>F174*156</f>
-        <v>10179676572</v>
+        <v>749299366</v>
       </c>
       <c r="I174">
-        <f t="shared" si="3"/>
-        <v>3.0001262372475867E-2</v>
+        <f t="shared" si="67"/>
+        <v>91.661106176000004</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="C175">
-        <v>65273920</v>
+        <v>195312500</v>
       </c>
       <c r="D175">
-        <v>65273920</v>
+        <v>195312500</v>
       </c>
       <c r="E175">
-        <v>11099048895</v>
+        <v>11718750000</v>
       </c>
       <c r="F175">
-        <v>65234755</v>
+        <v>16032374</v>
       </c>
       <c r="G175">
-        <f t="shared" ref="G175:G178" si="8">F175*156</f>
-        <v>10176621780</v>
+        <v>737603936</v>
       </c>
       <c r="I175">
-        <f t="shared" si="3"/>
-        <v>6.0000992739519858E-2</v>
+        <f t="shared" si="67"/>
+        <v>91.791424512000006</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="C176">
-        <v>65273920</v>
+        <v>195312500</v>
       </c>
       <c r="D176">
-        <v>65273920</v>
+        <v>195312500</v>
       </c>
       <c r="E176">
-        <v>11099048895</v>
+        <v>11718750000</v>
       </c>
       <c r="F176">
-        <v>65273920</v>
+        <v>16123510</v>
       </c>
       <c r="G176">
-        <f t="shared" si="8"/>
-        <v>10182731520</v>
+        <v>741762200</v>
       </c>
       <c r="I176">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>91.744762879999996</v>
       </c>
     </row>
     <row r="177" spans="2:9">
       <c r="C177">
-        <v>65273920</v>
+        <v>195312500</v>
       </c>
       <c r="D177">
-        <v>65273920</v>
+        <v>195312500</v>
       </c>
       <c r="E177">
-        <v>11099048895</v>
+        <v>11718750000</v>
       </c>
       <c r="F177">
-        <v>65255869</v>
+        <v>16017244</v>
       </c>
       <c r="G177">
-        <f t="shared" si="8"/>
-        <v>10179915564</v>
+        <v>736901896</v>
       </c>
       <c r="I177">
-        <f t="shared" si="3"/>
-        <v>2.7654230050838068E-2</v>
+        <f t="shared" si="67"/>
+        <v>91.799171071999993</v>
       </c>
     </row>
     <row r="178" spans="2:9">
-      <c r="C178">
-        <v>65273920</v>
-      </c>
-      <c r="D178">
-        <v>65273920</v>
-      </c>
-      <c r="E178">
-        <v>11099048895</v>
+      <c r="E178" t="s">
+        <v>56</v>
       </c>
       <c r="F178">
-        <v>65241843</v>
+        <f>AVERAGE(F173:F177)</f>
+        <v>16126042</v>
       </c>
       <c r="G178">
-        <f t="shared" si="8"/>
-        <v>10177727508</v>
+        <f t="shared" ref="G178" si="103">AVERAGE(G173:G177)</f>
+        <v>741901039.20000005</v>
       </c>
       <c r="I178">
-        <f t="shared" si="3"/>
-        <v>4.9142138238365336E-2</v>
+        <f t="shared" ref="I178" si="104">AVERAGE(I173:I177)</f>
+        <v>91.743466495999996</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9">
+      <c r="E179" t="s">
+        <v>57</v>
+      </c>
+      <c r="F179">
+        <f>_xlfn.STDEV.P(F173:F177)</f>
+        <v>98428.870455776341</v>
+      </c>
+      <c r="G179">
+        <f t="shared" ref="G179" si="105">_xlfn.STDEV.P(G173:G177)</f>
+        <v>4524586.8500447376</v>
+      </c>
+      <c r="I179">
+        <f t="shared" ref="I179" si="106">_xlfn.STDEV.P(I173:I177)</f>
+        <v>5.0395581673356005E-2</v>
       </c>
     </row>
     <row r="180" spans="2:9">
-      <c r="B180" t="s">
-        <v>48</v>
-      </c>
-      <c r="C180">
-        <v>65273920</v>
-      </c>
-      <c r="D180">
-        <v>65273920</v>
-      </c>
-      <c r="E180">
-        <v>11099048895</v>
+      <c r="E180" t="s">
+        <v>58</v>
       </c>
       <c r="F180">
-        <v>65227619</v>
+        <f>_xlfn.VAR.P(F173:F177)</f>
+        <v>9688242539.2000008</v>
       </c>
       <c r="G180">
-        <v>10135079162</v>
+        <f t="shared" ref="G180" si="107">_xlfn.VAR.P(G173:G177)</f>
+        <v>20471886163597.758</v>
       </c>
       <c r="I180">
-        <f t="shared" si="3"/>
-        <v>7.0933383501404546E-2</v>
+        <f t="shared" ref="I180" si="108">_xlfn.VAR.P(I173:I177)</f>
+        <v>2.5397146521958956E-3</v>
       </c>
     </row>
     <row r="181" spans="2:9">
-      <c r="C181">
-        <v>65273920</v>
-      </c>
-      <c r="D181">
-        <v>65273920</v>
-      </c>
-      <c r="E181">
-        <v>11099048895</v>
+      <c r="E181" t="s">
+        <v>59</v>
       </c>
       <c r="F181">
-        <v>65273920</v>
+        <f>((MAX(F173:F177)-MIN(F173:F177))*100)/AVERAGE(F173:F177)</f>
+        <v>1.6721896172662827</v>
       </c>
       <c r="G181">
-        <v>10141970371</v>
-      </c>
-      <c r="I181">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9">
-      <c r="C182">
-        <v>65273920</v>
-      </c>
-      <c r="D182">
-        <v>65273920</v>
-      </c>
-      <c r="E182">
-        <v>11099048895</v>
-      </c>
-      <c r="F182">
-        <v>65273920</v>
-      </c>
-      <c r="G182">
-        <v>10141970680</v>
-      </c>
-      <c r="I182">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="G181" si="109">((MAX(G173:G177)-MIN(G173:G177))*100)/AVERAGE(G173:G177)</f>
+        <v>1.6710409266131137</v>
       </c>
     </row>
     <row r="183" spans="2:9">
+      <c r="B183">
+        <v>128</v>
+      </c>
       <c r="C183">
-        <v>65273920</v>
+        <v>97656250</v>
       </c>
       <c r="D183">
-        <v>65273920</v>
+        <v>97656250</v>
       </c>
       <c r="E183">
-        <v>11099048895</v>
+        <v>12109375000</v>
       </c>
       <c r="F183">
-        <v>65273920</v>
+        <v>13885586</v>
       </c>
       <c r="G183">
-        <v>10141971534</v>
+        <v>1527657124</v>
       </c>
       <c r="I183">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>85.781159935999995</v>
       </c>
     </row>
     <row r="184" spans="2:9">
       <c r="C184">
-        <v>65273920</v>
+        <v>97656250</v>
       </c>
       <c r="D184">
-        <v>65273920</v>
+        <v>97656250</v>
       </c>
       <c r="E184">
-        <v>11099048895</v>
+        <v>12109375000</v>
       </c>
       <c r="F184">
-        <v>65273920</v>
+        <v>13855941</v>
       </c>
       <c r="G184">
-        <v>10141991034</v>
+        <v>1524165080</v>
       </c>
       <c r="I184">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>85.811516416000003</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9">
+      <c r="C185">
+        <v>97656250</v>
+      </c>
+      <c r="D185">
+        <v>97656250</v>
+      </c>
+      <c r="E185">
+        <v>12109375000</v>
+      </c>
+      <c r="F185">
+        <v>13882873</v>
+      </c>
+      <c r="G185">
+        <v>1527127882</v>
+      </c>
+      <c r="I185">
+        <f t="shared" si="67"/>
+        <v>85.783938047999996</v>
       </c>
     </row>
     <row r="186" spans="2:9">
-      <c r="B186" t="s">
-        <v>49</v>
-      </c>
       <c r="C186">
-        <v>65273920</v>
+        <v>97656250</v>
       </c>
       <c r="D186">
-        <v>65273920</v>
+        <v>97656250</v>
       </c>
       <c r="E186">
-        <v>11099048895</v>
+        <v>12109375000</v>
       </c>
       <c r="F186">
-        <v>65273920</v>
+        <v>13884866</v>
       </c>
       <c r="G186">
-        <v>12665621334</v>
+        <v>1527341745</v>
       </c>
       <c r="I186">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>85.781897216000004</v>
       </c>
     </row>
     <row r="187" spans="2:9">
       <c r="C187">
+        <v>97656250</v>
+      </c>
+      <c r="D187">
+        <v>97656250</v>
+      </c>
+      <c r="E187">
+        <v>12109375000</v>
+      </c>
+      <c r="F187">
+        <v>13805109</v>
+      </c>
+      <c r="G187">
+        <v>1518573196</v>
+      </c>
+      <c r="I187">
+        <f t="shared" si="67"/>
+        <v>85.863568384000004</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9">
+      <c r="E188" t="s">
+        <v>56</v>
+      </c>
+      <c r="F188">
+        <f>AVERAGE(F183:F187)</f>
+        <v>13862875</v>
+      </c>
+      <c r="G188">
+        <f t="shared" ref="G188" si="110">AVERAGE(G183:G187)</f>
+        <v>1524973005.4000001</v>
+      </c>
+      <c r="I188">
+        <f t="shared" ref="I188" si="111">AVERAGE(I183:I187)</f>
+        <v>85.804416000000003</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9">
+      <c r="E189" t="s">
+        <v>57</v>
+      </c>
+      <c r="F189">
+        <f>_xlfn.STDEV.P(F183:F187)</f>
+        <v>30933.168987350778</v>
+      </c>
+      <c r="G189">
+        <f t="shared" ref="G189" si="112">_xlfn.STDEV.P(G183:G187)</f>
+        <v>3437127.1993045355</v>
+      </c>
+      <c r="I189">
+        <f t="shared" ref="I189" si="113">_xlfn.STDEV.P(I183:I187)</f>
+        <v>3.1675565043049587E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9">
+      <c r="E190" t="s">
+        <v>58</v>
+      </c>
+      <c r="F190">
+        <f>_xlfn.VAR.P(F183:F187)</f>
+        <v>956860943.60000002</v>
+      </c>
+      <c r="G190">
+        <f t="shared" ref="G190" si="114">_xlfn.VAR.P(G183:G187)</f>
+        <v>11813843384199.041</v>
+      </c>
+      <c r="I190">
+        <f t="shared" ref="I190" si="115">_xlfn.VAR.P(I183:I187)</f>
+        <v>1.003341420796465E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9">
+      <c r="E191" t="s">
+        <v>59</v>
+      </c>
+      <c r="F191">
+        <f>((MAX(F183:F187)-MIN(F183:F187))*100)/AVERAGE(F183:F187)</f>
+        <v>0.5805217171762711</v>
+      </c>
+      <c r="G191">
+        <f t="shared" ref="G191" si="116">((MAX(G183:G187)-MIN(G183:G187))*100)/AVERAGE(G183:G187)</f>
+        <v>0.59567795415613189</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9">
+      <c r="B193">
+        <v>256</v>
+      </c>
+      <c r="C193">
+        <v>48828125</v>
+      </c>
+      <c r="D193">
+        <v>48828125</v>
+      </c>
+      <c r="E193">
+        <v>12304687500</v>
+      </c>
+      <c r="F193">
+        <v>12538320</v>
+      </c>
+      <c r="G193">
+        <v>2984065400</v>
+      </c>
+      <c r="I193">
+        <f t="shared" si="67"/>
+        <v>74.321520640000003</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9">
+      <c r="C194">
+        <v>48828125</v>
+      </c>
+      <c r="D194">
+        <v>48828125</v>
+      </c>
+      <c r="E194">
+        <v>12304687500</v>
+      </c>
+      <c r="F194">
+        <v>12603316</v>
+      </c>
+      <c r="G194">
+        <v>2999549560</v>
+      </c>
+      <c r="I194">
+        <f t="shared" si="67"/>
+        <v>74.188408831999993</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9">
+      <c r="C195">
+        <v>48828125</v>
+      </c>
+      <c r="D195">
+        <v>48828125</v>
+      </c>
+      <c r="E195">
+        <v>12304687500</v>
+      </c>
+      <c r="F195">
+        <v>12591498</v>
+      </c>
+      <c r="G195">
+        <v>2996732683</v>
+      </c>
+      <c r="I195">
+        <f t="shared" si="67"/>
+        <v>74.212612096000001</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9">
+      <c r="C196">
+        <v>48828125</v>
+      </c>
+      <c r="D196">
+        <v>48828125</v>
+      </c>
+      <c r="E196">
+        <v>12304687500</v>
+      </c>
+      <c r="F196">
+        <v>12568710</v>
+      </c>
+      <c r="G196">
+        <v>2991304128</v>
+      </c>
+      <c r="I196">
+        <f t="shared" si="67"/>
+        <v>74.259281920000006</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9">
+      <c r="C197">
+        <v>48828125</v>
+      </c>
+      <c r="D197">
+        <v>48828125</v>
+      </c>
+      <c r="E197">
+        <v>12304687500</v>
+      </c>
+      <c r="F197">
+        <v>12513324</v>
+      </c>
+      <c r="G197">
+        <v>2978118808</v>
+      </c>
+      <c r="I197">
+        <f t="shared" si="67"/>
+        <v>74.372712448000001</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9">
+      <c r="E198" t="s">
+        <v>56</v>
+      </c>
+      <c r="F198">
+        <f>AVERAGE(F193:F197)</f>
+        <v>12563033.6</v>
+      </c>
+      <c r="G198">
+        <f t="shared" ref="G198" si="117">AVERAGE(G193:G197)</f>
+        <v>2989954115.8000002</v>
+      </c>
+      <c r="I198">
+        <f t="shared" ref="I198" si="118">AVERAGE(I193:I197)</f>
+        <v>74.27090718720001</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9">
+      <c r="E199" t="s">
+        <v>57</v>
+      </c>
+      <c r="F199">
+        <f>_xlfn.STDEV.P(F193:F197)</f>
+        <v>33307.42166905148</v>
+      </c>
+      <c r="G199">
+        <f t="shared" ref="G199" si="119">_xlfn.STDEV.P(G193:G197)</f>
+        <v>7932156.5808333466</v>
+      </c>
+      <c r="I199">
+        <f t="shared" ref="I199" si="120">_xlfn.STDEV.P(I193:I197)</f>
+        <v>6.8213599578219555E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9">
+      <c r="E200" t="s">
+        <v>58</v>
+      </c>
+      <c r="F200">
+        <f>_xlfn.VAR.P(F193:F197)</f>
+        <v>1109384338.2400002</v>
+      </c>
+      <c r="G200">
+        <f t="shared" ref="G200" si="121">_xlfn.VAR.P(G193:G197)</f>
+        <v>62919108022857.766</v>
+      </c>
+      <c r="I200">
+        <f t="shared" ref="I200" si="122">_xlfn.VAR.P(I193:I197)</f>
+        <v>4.6530951674176747E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9">
+      <c r="E201" t="s">
+        <v>59</v>
+      </c>
+      <c r="F201">
+        <f>((MAX(F193:F197)-MIN(F193:F197))*100)/AVERAGE(F193:F197)</f>
+        <v>0.71632380255673278</v>
+      </c>
+      <c r="G201">
+        <f t="shared" ref="G201" si="123">((MAX(G193:G197)-MIN(G193:G197))*100)/AVERAGE(G193:G197)</f>
+        <v>0.71675855782375208</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9">
+      <c r="B203">
+        <v>512</v>
+      </c>
+      <c r="C203">
+        <v>24414063</v>
+      </c>
+      <c r="D203">
+        <v>24414063</v>
+      </c>
+      <c r="E203">
+        <v>12402344004</v>
+      </c>
+      <c r="F203">
+        <v>11527176</v>
+      </c>
+      <c r="G203">
+        <v>5693825512</v>
+      </c>
+      <c r="I203">
+        <f t="shared" si="67"/>
+        <v>52.784688070969587</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9">
+      <c r="C204">
+        <v>24414063</v>
+      </c>
+      <c r="D204">
+        <v>24414063</v>
+      </c>
+      <c r="E204">
+        <v>12402344004</v>
+      </c>
+      <c r="F204">
+        <v>11636399</v>
+      </c>
+      <c r="G204">
+        <v>5748155433</v>
+      </c>
+      <c r="I204">
+        <f t="shared" si="67"/>
+        <v>52.337310672131878</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9">
+      <c r="C205">
+        <v>24414063</v>
+      </c>
+      <c r="D205">
+        <v>24414063</v>
+      </c>
+      <c r="E205">
+        <v>12402344004</v>
+      </c>
+      <c r="F205">
+        <v>11572927</v>
+      </c>
+      <c r="G205">
+        <v>5716893397</v>
+      </c>
+      <c r="I205">
+        <f t="shared" si="67"/>
+        <v>52.597291978807462</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9">
+      <c r="C206">
+        <v>24414063</v>
+      </c>
+      <c r="D206">
+        <v>24414063</v>
+      </c>
+      <c r="E206">
+        <v>12402344004</v>
+      </c>
+      <c r="F206">
+        <v>11674107</v>
+      </c>
+      <c r="G206">
+        <v>5766859699</v>
+      </c>
+      <c r="I206">
+        <f t="shared" si="67"/>
+        <v>52.182858707295054</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9">
+      <c r="C207">
+        <v>24414063</v>
+      </c>
+      <c r="D207">
+        <v>24414063</v>
+      </c>
+      <c r="E207">
+        <v>12402344004</v>
+      </c>
+      <c r="F207">
+        <v>11597755</v>
+      </c>
+      <c r="G207">
+        <v>5729066942</v>
+      </c>
+      <c r="I207">
+        <f t="shared" si="67"/>
+        <v>52.495596492890186</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9">
+      <c r="E208" t="s">
+        <v>56</v>
+      </c>
+      <c r="F208">
+        <f>AVERAGE(F203:F207)</f>
+        <v>11601672.800000001</v>
+      </c>
+      <c r="G208">
+        <f t="shared" ref="G208" si="124">AVERAGE(G203:G207)</f>
+        <v>5730960196.6000004</v>
+      </c>
+      <c r="I208">
+        <f t="shared" ref="I208" si="125">AVERAGE(I203:I207)</f>
+        <v>52.479549184418829</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9">
+      <c r="E209" t="s">
+        <v>57</v>
+      </c>
+      <c r="F209">
+        <f>_xlfn.STDEV.P(F203:F207)</f>
+        <v>50683.460183377378</v>
+      </c>
+      <c r="G209">
+        <f t="shared" ref="G209" si="126">_xlfn.STDEV.P(G203:G207)</f>
+        <v>25159071.889590636</v>
+      </c>
+      <c r="I209">
+        <f t="shared" ref="I209" si="127">_xlfn.STDEV.P(I203:I207)</f>
+        <v>0.20759944865947666</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9">
+      <c r="E210" t="s">
+        <v>58</v>
+      </c>
+      <c r="F210">
+        <f>_xlfn.VAR.P(F203:F207)</f>
+        <v>2568813136.1600003</v>
+      </c>
+      <c r="G210">
+        <f t="shared" ref="G210" si="128">_xlfn.VAR.P(G203:G207)</f>
+        <v>632978898345589.75</v>
+      </c>
+      <c r="I210">
+        <f t="shared" ref="I210" si="129">_xlfn.VAR.P(I203:I207)</f>
+        <v>4.3097531083718686E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9">
+      <c r="E211" t="s">
+        <v>59</v>
+      </c>
+      <c r="F211">
+        <f>((MAX(F203:F207)-MIN(F203:F207))*100)/AVERAGE(F203:F207)</f>
+        <v>1.2664639188927995</v>
+      </c>
+      <c r="G211">
+        <f t="shared" ref="G211" si="130">((MAX(G203:G207)-MIN(G203:G207))*100)/AVERAGE(G203:G207)</f>
+        <v>1.2743795890142267</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9">
+      <c r="B213">
+        <v>1024</v>
+      </c>
+      <c r="C213">
+        <v>12207032</v>
+      </c>
+      <c r="D213">
+        <v>12207032</v>
+      </c>
+      <c r="E213">
+        <v>12451172640</v>
+      </c>
+      <c r="F213">
+        <v>10710960</v>
+      </c>
+      <c r="G213">
+        <v>10774643694</v>
+      </c>
+      <c r="I213">
+        <f t="shared" si="67"/>
+        <v>12.255821071002353</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9">
+      <c r="C214">
+        <v>12207032</v>
+      </c>
+      <c r="D214">
+        <v>12207032</v>
+      </c>
+      <c r="E214">
+        <v>12451172640</v>
+      </c>
+      <c r="F214">
+        <v>10836219</v>
+      </c>
+      <c r="G214">
+        <v>10900819213</v>
+      </c>
+      <c r="I214">
+        <f t="shared" si="67"/>
+        <v>11.229699406047269</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9">
+      <c r="C215">
+        <v>12207032</v>
+      </c>
+      <c r="D215">
+        <v>12207032</v>
+      </c>
+      <c r="E215">
+        <v>12451172640</v>
+      </c>
+      <c r="F215">
+        <v>10664068</v>
+      </c>
+      <c r="G215">
+        <v>10727661111</v>
+      </c>
+      <c r="I215">
+        <f t="shared" si="67"/>
+        <v>12.639960311400838</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9">
+      <c r="C216">
+        <v>12207032</v>
+      </c>
+      <c r="D216">
+        <v>12207032</v>
+      </c>
+      <c r="E216">
+        <v>12451172640</v>
+      </c>
+      <c r="F216">
+        <v>10758884</v>
+      </c>
+      <c r="G216">
+        <v>10822883989</v>
+      </c>
+      <c r="I216">
+        <f t="shared" si="67"/>
+        <v>11.863227687123292</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9">
+      <c r="C217">
+        <v>12207032</v>
+      </c>
+      <c r="D217">
+        <v>12207032</v>
+      </c>
+      <c r="E217">
+        <v>12451172640</v>
+      </c>
+      <c r="F217">
+        <v>10852286</v>
+      </c>
+      <c r="G217">
+        <v>10916848797</v>
+      </c>
+      <c r="I217">
+        <f t="shared" si="67"/>
+        <v>11.098078550134053</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9">
+      <c r="E218" t="s">
+        <v>56</v>
+      </c>
+      <c r="F218">
+        <f>AVERAGE(F213:F217)</f>
+        <v>10764483.4</v>
+      </c>
+      <c r="G218">
+        <f t="shared" ref="G218" si="131">AVERAGE(G213:G217)</f>
+        <v>10828571360.799999</v>
+      </c>
+      <c r="I218">
+        <f t="shared" ref="I218" si="132">AVERAGE(I213:I217)</f>
+        <v>11.817357405141561</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9">
+      <c r="E219" t="s">
+        <v>57</v>
+      </c>
+      <c r="F219">
+        <f>_xlfn.STDEV.P(F213:F217)</f>
+        <v>71881.36484402616</v>
+      </c>
+      <c r="G219">
+        <f t="shared" ref="G219" si="133">_xlfn.STDEV.P(G213:G217)</f>
+        <v>72299482.499862716</v>
+      </c>
+      <c r="I219">
+        <f t="shared" ref="I219" si="134">_xlfn.STDEV.P(I213:I217)</f>
+        <v>0.58885210462318904</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9">
+      <c r="E220" t="s">
+        <v>58</v>
+      </c>
+      <c r="F220">
+        <f>_xlfn.VAR.P(F213:F217)</f>
+        <v>5166930611.8400002</v>
+      </c>
+      <c r="G220">
+        <f t="shared" ref="G220" si="135">_xlfn.VAR.P(G213:G217)</f>
+        <v>5227215169747954</v>
+      </c>
+      <c r="I220">
+        <f t="shared" ref="I220" si="136">_xlfn.VAR.P(I213:I217)</f>
+        <v>0.34674680111915912</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9">
+      <c r="E221" t="s">
+        <v>59</v>
+      </c>
+      <c r="F221">
+        <f>((MAX(F213:F217)-MIN(F213:F217))*100)/AVERAGE(F213:F217)</f>
+        <v>1.7485093618147991</v>
+      </c>
+      <c r="G221">
+        <f t="shared" ref="G221" si="137">((MAX(G213:G217)-MIN(G213:G217))*100)/AVERAGE(G213:G217)</f>
+        <v>1.747115844707543</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9">
+      <c r="D224" t="s">
+        <v>60</v>
+      </c>
+      <c r="F224">
+        <f>AVERAGE(F219,F209,F199,F189,F179)</f>
+        <v>57046.857227916436</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="D225" t="s">
+        <v>61</v>
+      </c>
+      <c r="F225">
+        <f>AVERAGE(F220,F210,F200,F190,F180)</f>
+        <v>3898046313.8080001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="D226" t="s">
+        <v>62</v>
+      </c>
+      <c r="F226">
+        <f>AVERAGE(F221,F211,F201,F191,F181)</f>
+        <v>1.1968016835413771</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" t="s">
+        <v>51</v>
+      </c>
+      <c r="B228">
+        <v>64</v>
+      </c>
+      <c r="C228">
+        <v>195312500</v>
+      </c>
+      <c r="D228">
+        <v>195312500</v>
+      </c>
+      <c r="E228">
+        <v>11718750000</v>
+      </c>
+      <c r="F228">
+        <v>149990607</v>
+      </c>
+      <c r="G228">
+        <v>6899567922</v>
+      </c>
+      <c r="I228">
+        <f t="shared" si="67"/>
+        <v>23.204809216000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="C229">
+        <v>195312500</v>
+      </c>
+      <c r="D229">
+        <v>195312500</v>
+      </c>
+      <c r="E229">
+        <v>11718750000</v>
+      </c>
+      <c r="F229">
+        <v>148937228</v>
+      </c>
+      <c r="G229">
+        <f>F229*(64-18)</f>
+        <v>6851112488</v>
+      </c>
+      <c r="I229">
+        <f t="shared" si="67"/>
+        <v>23.744139264000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="C230">
+        <v>195312500</v>
+      </c>
+      <c r="D230">
+        <v>195312500</v>
+      </c>
+      <c r="E230">
+        <v>11718750000</v>
+      </c>
+      <c r="F230">
+        <v>150492384</v>
+      </c>
+      <c r="G230">
+        <f t="shared" ref="G230:G232" si="138">F230*(64-18)</f>
+        <v>6922649664</v>
+      </c>
+      <c r="I230">
+        <f t="shared" si="67"/>
+        <v>22.947899392</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="C231">
+        <v>195312500</v>
+      </c>
+      <c r="D231">
+        <v>195312500</v>
+      </c>
+      <c r="E231">
+        <v>11718750000</v>
+      </c>
+      <c r="F231">
+        <v>149737249</v>
+      </c>
+      <c r="G231">
+        <f t="shared" si="138"/>
+        <v>6887913454</v>
+      </c>
+      <c r="I231">
+        <f t="shared" si="67"/>
+        <v>23.334528511999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="C232">
+        <v>195312500</v>
+      </c>
+      <c r="D232">
+        <v>195312500</v>
+      </c>
+      <c r="E232">
+        <v>11718750000</v>
+      </c>
+      <c r="F232">
+        <v>150113454</v>
+      </c>
+      <c r="G232">
+        <f t="shared" si="138"/>
+        <v>6905218884</v>
+      </c>
+      <c r="I232">
+        <f t="shared" si="67"/>
+        <v>23.141911552</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="E233" t="s">
+        <v>56</v>
+      </c>
+      <c r="F233">
+        <f>AVERAGE(F228:F232)</f>
+        <v>149854184.40000001</v>
+      </c>
+      <c r="G233">
+        <f t="shared" ref="G233" si="139">AVERAGE(G228:G232)</f>
+        <v>6893292482.3999996</v>
+      </c>
+      <c r="I233">
+        <f t="shared" ref="I233" si="140">AVERAGE(I228:I232)</f>
+        <v>23.274657587199997</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="E234" t="s">
+        <v>57</v>
+      </c>
+      <c r="F234">
+        <f>_xlfn.STDEV.P(F228:F232)</f>
+        <v>519155.75851360837</v>
+      </c>
+      <c r="G234">
+        <f t="shared" ref="G234" si="141">_xlfn.STDEV.P(G228:G232)</f>
+        <v>23881164.891625982</v>
+      </c>
+      <c r="I234">
+        <f t="shared" ref="I234" si="142">_xlfn.STDEV.P(I228:I232)</f>
+        <v>0.2658077483589677</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="E235" t="s">
+        <v>58</v>
+      </c>
+      <c r="F235">
+        <f>_xlfn.VAR.P(F228:F232)</f>
+        <v>269522701597.84003</v>
+      </c>
+      <c r="G235">
+        <f t="shared" ref="G235" si="143">_xlfn.VAR.P(G228:G232)</f>
+        <v>570310036581029.38</v>
+      </c>
+      <c r="I235">
+        <f t="shared" ref="I235" si="144">_xlfn.VAR.P(I228:I232)</f>
+        <v>7.0653759087664303E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="E236" t="s">
+        <v>59</v>
+      </c>
+      <c r="F236">
+        <f>((MAX(F228:F232)-MIN(F228:F232))*100)/AVERAGE(F228:F232)</f>
+        <v>1.0377794962661049</v>
+      </c>
+      <c r="G236">
+        <f t="shared" ref="G236" si="145">((MAX(G228:G232)-MIN(G228:G232))*100)/AVERAGE(G228:G232)</f>
+        <v>1.0377794962661049</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="B238">
+        <v>128</v>
+      </c>
+      <c r="C238">
+        <v>97656250</v>
+      </c>
+      <c r="D238">
+        <v>97656250</v>
+      </c>
+      <c r="E238">
+        <v>12109375000</v>
+      </c>
+      <c r="F238">
+        <v>97589676</v>
+      </c>
+      <c r="G238">
+        <v>10734864360</v>
+      </c>
+      <c r="I238">
+        <f t="shared" ref="I238:I328" si="146">((D238-F238)*100)/D238</f>
+        <v>6.8171776000000003E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="C239">
+        <v>97656250</v>
+      </c>
+      <c r="D239">
+        <v>97656250</v>
+      </c>
+      <c r="E239">
+        <v>12109375000</v>
+      </c>
+      <c r="F239">
+        <v>97523452</v>
+      </c>
+      <c r="G239">
+        <f>F239*(128-18)</f>
+        <v>10727579720</v>
+      </c>
+      <c r="I239">
+        <f t="shared" si="146"/>
+        <v>0.135985152</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="C240">
+        <v>97656250</v>
+      </c>
+      <c r="D240">
+        <v>97656250</v>
+      </c>
+      <c r="E240">
+        <v>12109375000</v>
+      </c>
+      <c r="F240">
+        <v>97544553</v>
+      </c>
+      <c r="G240">
+        <f t="shared" ref="G240:G242" si="147">F240*(128-18)</f>
+        <v>10729900830</v>
+      </c>
+      <c r="I240">
+        <f t="shared" si="146"/>
+        <v>0.114377728</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9">
+      <c r="C241">
+        <v>97656250</v>
+      </c>
+      <c r="D241">
+        <v>97656250</v>
+      </c>
+      <c r="E241">
+        <v>12109375000</v>
+      </c>
+      <c r="F241">
+        <v>97428554</v>
+      </c>
+      <c r="G241">
+        <f t="shared" si="147"/>
+        <v>10717140940</v>
+      </c>
+      <c r="I241">
+        <f t="shared" si="146"/>
+        <v>0.233160704</v>
+      </c>
+    </row>
+    <row r="242" spans="2:9">
+      <c r="C242">
+        <v>97656250</v>
+      </c>
+      <c r="D242">
+        <v>97656250</v>
+      </c>
+      <c r="E242">
+        <v>12109375000</v>
+      </c>
+      <c r="F242">
+        <v>97534583</v>
+      </c>
+      <c r="G242">
+        <f t="shared" si="147"/>
+        <v>10728804130</v>
+      </c>
+      <c r="I242">
+        <f t="shared" si="146"/>
+        <v>0.124587008</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9">
+      <c r="E243" t="s">
+        <v>56</v>
+      </c>
+      <c r="F243">
+        <f>AVERAGE(F238:F242)</f>
+        <v>97524163.599999994</v>
+      </c>
+      <c r="G243">
+        <f t="shared" ref="G243" si="148">AVERAGE(G238:G242)</f>
+        <v>10727657996</v>
+      </c>
+      <c r="I243">
+        <f t="shared" ref="I243" si="149">AVERAGE(I238:I242)</f>
+        <v>0.13525647360000001</v>
+      </c>
+    </row>
+    <row r="244" spans="2:9">
+      <c r="E244" t="s">
+        <v>57</v>
+      </c>
+      <c r="F244">
+        <f>_xlfn.STDEV.P(F238:F242)</f>
+        <v>52835.34436189472</v>
+      </c>
+      <c r="G244">
+        <f t="shared" ref="G244" si="150">_xlfn.STDEV.P(G238:G242)</f>
+        <v>5811887.8798084194</v>
+      </c>
+      <c r="I244">
+        <f t="shared" ref="I244" si="151">_xlfn.STDEV.P(I238:I242)</f>
+        <v>5.4103392626580184E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9">
+      <c r="E245" t="s">
+        <v>58</v>
+      </c>
+      <c r="F245">
+        <f>_xlfn.VAR.P(F238:F242)</f>
+        <v>2791573613.8400002</v>
+      </c>
+      <c r="G245">
+        <f t="shared" ref="G245" si="152">_xlfn.VAR.P(G238:G242)</f>
+        <v>33778040727464</v>
+      </c>
+      <c r="I245">
+        <f t="shared" ref="I245" si="153">_xlfn.VAR.P(I238:I242)</f>
+        <v>2.9271770937058907E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9">
+      <c r="E246" t="s">
+        <v>59</v>
+      </c>
+      <c r="F246">
+        <f>((MAX(F238:F242)-MIN(F238:F242))*100)/AVERAGE(F238:F242)</f>
+        <v>0.16521238845056857</v>
+      </c>
+      <c r="G246">
+        <f t="shared" ref="G246" si="154">((MAX(G238:G242)-MIN(G238:G242))*100)/AVERAGE(G238:G242)</f>
+        <v>0.16521238845056857</v>
+      </c>
+    </row>
+    <row r="248" spans="2:9">
+      <c r="B248">
+        <v>256</v>
+      </c>
+      <c r="C248">
+        <v>48828125</v>
+      </c>
+      <c r="D248">
+        <v>48828125</v>
+      </c>
+      <c r="E248">
+        <v>12304687500</v>
+      </c>
+      <c r="F248">
+        <v>48826405</v>
+      </c>
+      <c r="G248">
+        <v>11620684390</v>
+      </c>
+      <c r="I248">
+        <f t="shared" si="146"/>
+        <v>3.5225600000000001E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="2:9">
+      <c r="C249">
+        <v>48828125</v>
+      </c>
+      <c r="D249">
+        <v>48828125</v>
+      </c>
+      <c r="E249">
+        <v>12304687500</v>
+      </c>
+      <c r="F249">
+        <v>48821458</v>
+      </c>
+      <c r="G249">
+        <f>F249*(256-18)</f>
+        <v>11619507004</v>
+      </c>
+      <c r="I249">
+        <f t="shared" si="146"/>
+        <v>1.3654016E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="2:9">
+      <c r="C250">
+        <v>48828125</v>
+      </c>
+      <c r="D250">
+        <v>48828125</v>
+      </c>
+      <c r="E250">
+        <v>12304687500</v>
+      </c>
+      <c r="F250">
+        <v>48783458</v>
+      </c>
+      <c r="G250">
+        <f t="shared" ref="G250:G252" si="155">F250*(256-18)</f>
+        <v>11610463004</v>
+      </c>
+      <c r="I250">
+        <f t="shared" si="146"/>
+        <v>9.1478015999999995E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="2:9">
+      <c r="C251">
+        <v>48828125</v>
+      </c>
+      <c r="D251">
+        <v>48828125</v>
+      </c>
+      <c r="E251">
+        <v>12304687500</v>
+      </c>
+      <c r="F251">
+        <v>48713458</v>
+      </c>
+      <c r="G251">
+        <f t="shared" si="155"/>
+        <v>11593803004</v>
+      </c>
+      <c r="I251">
+        <f t="shared" si="146"/>
+        <v>0.23483801600000001</v>
+      </c>
+    </row>
+    <row r="252" spans="2:9">
+      <c r="C252">
+        <v>48828125</v>
+      </c>
+      <c r="D252">
+        <v>48828125</v>
+      </c>
+      <c r="E252">
+        <v>12304687500</v>
+      </c>
+      <c r="F252">
+        <v>48750134</v>
+      </c>
+      <c r="G252">
+        <f t="shared" si="155"/>
+        <v>11602531892</v>
+      </c>
+      <c r="I252">
+        <f t="shared" si="146"/>
+        <v>0.15972556800000001</v>
+      </c>
+    </row>
+    <row r="253" spans="2:9">
+      <c r="E253" t="s">
+        <v>56</v>
+      </c>
+      <c r="F253">
+        <f>AVERAGE(F248:F252)</f>
+        <v>48778982.600000001</v>
+      </c>
+      <c r="G253">
+        <f t="shared" ref="G253" si="156">AVERAGE(G248:G252)</f>
+        <v>11609397858.799999</v>
+      </c>
+      <c r="I253">
+        <f t="shared" ref="I253" si="157">AVERAGE(I248:I252)</f>
+        <v>0.10064363520000001</v>
+      </c>
+    </row>
+    <row r="254" spans="2:9">
+      <c r="E254" t="s">
+        <v>57</v>
+      </c>
+      <c r="F254">
+        <f>_xlfn.STDEV.P(F248:F252)</f>
+        <v>42892.395035017573</v>
+      </c>
+      <c r="G254">
+        <f t="shared" ref="G254" si="158">_xlfn.STDEV.P(G248:G252)</f>
+        <v>10208390.018334182</v>
+      </c>
+      <c r="I254">
+        <f t="shared" ref="I254" si="159">_xlfn.STDEV.P(I248:I252)</f>
+        <v>8.7843625031715972E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="2:9">
+      <c r="E255" t="s">
+        <v>58</v>
+      </c>
+      <c r="F255">
+        <f>_xlfn.VAR.P(F248:F252)</f>
+        <v>1839757551.8400002</v>
+      </c>
+      <c r="G255">
+        <f t="shared" ref="G255" si="160">_xlfn.VAR.P(G248:G252)</f>
+        <v>104211226766424.95</v>
+      </c>
+      <c r="I255">
+        <f t="shared" ref="I255" si="161">_xlfn.VAR.P(I248:I252)</f>
+        <v>7.7165024587127172E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="2:9">
+      <c r="E256" t="s">
+        <v>59</v>
+      </c>
+      <c r="F256">
+        <f>((MAX(F248:F252)-MIN(F248:F252))*100)/AVERAGE(F248:F252)</f>
+        <v>0.23154849482244019</v>
+      </c>
+      <c r="G256">
+        <f t="shared" ref="G256" si="162">((MAX(G248:G252)-MIN(G248:G252))*100)/AVERAGE(G248:G252)</f>
+        <v>0.23154849482244019</v>
+      </c>
+    </row>
+    <row r="258" spans="2:9">
+      <c r="B258">
+        <v>512</v>
+      </c>
+      <c r="C258">
+        <v>24414063</v>
+      </c>
+      <c r="D258">
+        <v>24414063</v>
+      </c>
+      <c r="E258">
+        <v>12402344004</v>
+      </c>
+      <c r="F258">
+        <v>24410902</v>
+      </c>
+      <c r="G258">
+        <v>12058985588</v>
+      </c>
+      <c r="I258">
+        <f t="shared" si="146"/>
+        <v>1.2947455734836107E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="2:9">
+      <c r="C259">
+        <v>24414063</v>
+      </c>
+      <c r="D259">
+        <v>24414063</v>
+      </c>
+      <c r="E259">
+        <v>12402344004</v>
+      </c>
+      <c r="F259">
+        <v>24397858</v>
+      </c>
+      <c r="G259">
+        <f>F259*(512-18)</f>
+        <v>12052541852</v>
+      </c>
+      <c r="I259">
+        <f t="shared" si="146"/>
+        <v>6.6375678640626101E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="2:9">
+      <c r="C260">
+        <v>24414063</v>
+      </c>
+      <c r="D260">
+        <v>24414063</v>
+      </c>
+      <c r="E260">
+        <v>12402344004</v>
+      </c>
+      <c r="F260">
+        <v>24404872</v>
+      </c>
+      <c r="G260">
+        <f t="shared" ref="G260:G262" si="163">F260*(512-18)</f>
+        <v>12056006768</v>
+      </c>
+      <c r="I260">
+        <f t="shared" si="146"/>
+        <v>3.7646335229003056E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="2:9">
+      <c r="C261">
+        <v>24414063</v>
+      </c>
+      <c r="D261">
+        <v>24414063</v>
+      </c>
+      <c r="E261">
+        <v>12402344004</v>
+      </c>
+      <c r="F261">
+        <v>24387273</v>
+      </c>
+      <c r="G261">
+        <f t="shared" si="163"/>
+        <v>12047312862</v>
+      </c>
+      <c r="I261">
+        <f t="shared" si="146"/>
+        <v>0.10973183775269196</v>
+      </c>
+    </row>
+    <row r="262" spans="2:9">
+      <c r="C262">
+        <v>24414063</v>
+      </c>
+      <c r="D262">
+        <v>24414063</v>
+      </c>
+      <c r="E262">
+        <v>12402344004</v>
+      </c>
+      <c r="F262">
+        <v>24398281</v>
+      </c>
+      <c r="G262">
+        <f t="shared" si="163"/>
+        <v>12052750814</v>
+      </c>
+      <c r="I262">
+        <f t="shared" si="146"/>
+        <v>6.4643070676109915E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="2:9">
+      <c r="E263" t="s">
+        <v>56</v>
+      </c>
+      <c r="F263">
+        <f>AVERAGE(F258:F262)</f>
+        <v>24399837.199999999</v>
+      </c>
+      <c r="G263">
+        <f t="shared" ref="G263" si="164">AVERAGE(G258:G262)</f>
+        <v>12053519576.799999</v>
+      </c>
+      <c r="I263">
+        <f t="shared" ref="I263" si="165">AVERAGE(I258:I262)</f>
+        <v>5.8268875606653427E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="2:9">
+      <c r="E264" t="s">
+        <v>57</v>
+      </c>
+      <c r="F264">
+        <f>_xlfn.STDEV.P(F258:F262)</f>
+        <v>7899.0774499304653</v>
+      </c>
+      <c r="G264">
+        <f t="shared" ref="G264" si="166">_xlfn.STDEV.P(G258:G262)</f>
+        <v>3902144.2602656502</v>
+      </c>
+      <c r="I264">
+        <f t="shared" ref="I264" si="167">_xlfn.STDEV.P(I258:I262)</f>
+        <v>3.2354620572292568E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="2:9">
+      <c r="E265" t="s">
+        <v>58</v>
+      </c>
+      <c r="F265">
+        <f>_xlfn.VAR.P(F258:F262)</f>
+        <v>62395424.559999987</v>
+      </c>
+      <c r="G265">
+        <f t="shared" ref="G265" si="168">_xlfn.VAR.P(G258:G262)</f>
+        <v>15226729827924.16</v>
+      </c>
+      <c r="I265">
+        <f t="shared" ref="I265" si="169">_xlfn.VAR.P(I258:I262)</f>
+        <v>1.0468214723770176E-3</v>
+      </c>
+    </row>
+    <row r="266" spans="2:9">
+      <c r="E266" t="s">
+        <v>59</v>
+      </c>
+      <c r="F266">
+        <f>((MAX(F258:F262)-MIN(F258:F262))*100)/AVERAGE(F258:F262)</f>
+        <v>9.6840810069011449E-2</v>
+      </c>
+      <c r="G266">
+        <f t="shared" ref="G266" si="170">((MAX(G258:G262)-MIN(G258:G262))*100)/AVERAGE(G258:G262)</f>
+        <v>9.6840810069011449E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="2:9">
+      <c r="B268">
+        <v>1024</v>
+      </c>
+      <c r="C268">
+        <v>12207032</v>
+      </c>
+      <c r="D268">
+        <v>12207032</v>
+      </c>
+      <c r="E268">
+        <v>12451172640</v>
+      </c>
+      <c r="F268">
+        <v>12205877</v>
+      </c>
+      <c r="G268">
+        <v>12279112262</v>
+      </c>
+      <c r="I268">
+        <f t="shared" si="146"/>
+        <v>9.461759418669502E-3</v>
+      </c>
+    </row>
+    <row r="269" spans="2:9">
+      <c r="C269">
+        <v>12207032</v>
+      </c>
+      <c r="D269">
+        <v>12207032</v>
+      </c>
+      <c r="E269">
+        <v>12451172640</v>
+      </c>
+      <c r="F269">
+        <v>12188428</v>
+      </c>
+      <c r="G269">
+        <f>F269*(1024-18)</f>
+        <v>12261558568</v>
+      </c>
+      <c r="I269">
+        <f t="shared" si="146"/>
+        <v>0.15240395863630077</v>
+      </c>
+    </row>
+    <row r="270" spans="2:9">
+      <c r="C270">
+        <v>12207032</v>
+      </c>
+      <c r="D270">
+        <v>12207032</v>
+      </c>
+      <c r="E270">
+        <v>12451172640</v>
+      </c>
+      <c r="F270">
+        <v>12200683</v>
+      </c>
+      <c r="G270">
+        <f t="shared" ref="G270:G272" si="171">F270*(1024-18)</f>
+        <v>12273887098</v>
+      </c>
+      <c r="I270">
+        <f t="shared" si="146"/>
+        <v>5.2011004804443865E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="2:9">
+      <c r="C271">
+        <v>12207032</v>
+      </c>
+      <c r="D271">
+        <v>12207032</v>
+      </c>
+      <c r="E271">
+        <v>12451172640</v>
+      </c>
+      <c r="F271">
+        <v>12196781</v>
+      </c>
+      <c r="G271">
+        <f t="shared" si="171"/>
+        <v>12269961686</v>
+      </c>
+      <c r="I271">
+        <f t="shared" si="146"/>
+        <v>8.3976186840503078E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="2:9">
+      <c r="C272">
+        <v>12207032</v>
+      </c>
+      <c r="D272">
+        <v>12207032</v>
+      </c>
+      <c r="E272">
+        <v>12451172640</v>
+      </c>
+      <c r="F272">
+        <v>12203484</v>
+      </c>
+      <c r="G272">
+        <f t="shared" si="171"/>
+        <v>12276704904</v>
+      </c>
+      <c r="I272">
+        <f t="shared" si="146"/>
+        <v>2.9065214214233238E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="E273" t="s">
+        <v>56</v>
+      </c>
+      <c r="F273">
+        <f>AVERAGE(F268:F272)</f>
+        <v>12199050.6</v>
+      </c>
+      <c r="G273">
+        <f t="shared" ref="G273" si="172">AVERAGE(G268:G272)</f>
+        <v>12272244903.6</v>
+      </c>
+      <c r="I273">
+        <f t="shared" ref="I273" si="173">AVERAGE(I268:I272)</f>
+        <v>6.5383624782830094E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
+      <c r="E274" t="s">
+        <v>57</v>
+      </c>
+      <c r="F274">
+        <f>_xlfn.STDEV.P(F268:F272)</f>
+        <v>6114.0856585429028</v>
+      </c>
+      <c r="G274">
+        <f t="shared" ref="G274" si="174">_xlfn.STDEV.P(G268:G272)</f>
+        <v>6150770.17249416</v>
+      </c>
+      <c r="I274">
+        <f t="shared" ref="I274" si="175">_xlfn.STDEV.P(I268:I272)</f>
+        <v>5.0086586637463557E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="E275" t="s">
+        <v>58</v>
+      </c>
+      <c r="F275">
+        <f>_xlfn.VAR.P(F268:F272)</f>
+        <v>37382043.439999998</v>
+      </c>
+      <c r="G275">
+        <f t="shared" ref="G275" si="176">_xlfn.VAR.P(G268:G272)</f>
+        <v>37831973714843.836</v>
+      </c>
+      <c r="I275">
+        <f t="shared" ref="I275" si="177">_xlfn.VAR.P(I268:I272)</f>
+        <v>2.5086661609921429E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="E276" t="s">
+        <v>59</v>
+      </c>
+      <c r="F276">
+        <f>((MAX(F268:F272)-MIN(F268:F272))*100)/AVERAGE(F268:F272)</f>
+        <v>0.14303572115685789</v>
+      </c>
+      <c r="G276">
+        <f t="shared" ref="G276" si="178">((MAX(G268:G272)-MIN(G268:G272))*100)/AVERAGE(G268:G272)</f>
+        <v>0.14303572115685789</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="D279" t="s">
+        <v>60</v>
+      </c>
+      <c r="F279">
+        <f>AVERAGE(F274,F264,F254,F244,F234)</f>
+        <v>125779.33220379881</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="D280" t="s">
+        <v>61</v>
+      </c>
+      <c r="F280">
+        <f>AVERAGE(F275,F265,F255,F245,F235)</f>
+        <v>54850762046.304001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="D281" t="s">
+        <v>62</v>
+      </c>
+      <c r="F281">
+        <f>AVERAGE(F276,F266,F256,F246,F236)</f>
+        <v>0.33488338215299657</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
+      <c r="A284" t="s">
+        <v>52</v>
+      </c>
+      <c r="B284" t="s">
+        <v>50</v>
+      </c>
+      <c r="C284">
         <v>65273920</v>
       </c>
-      <c r="D187">
+      <c r="D284">
         <v>65273920</v>
       </c>
-      <c r="E187">
+      <c r="E284">
         <v>11099048895</v>
       </c>
-      <c r="F187">
+      <c r="F284">
+        <v>6036055</v>
+      </c>
+      <c r="G284">
+        <v>1107717974</v>
+      </c>
+      <c r="I284">
+        <f t="shared" si="146"/>
+        <v>90.752730952882871</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
+      <c r="C285">
+        <v>65273920</v>
+      </c>
+      <c r="D285">
+        <v>65273920</v>
+      </c>
+      <c r="E285">
+        <v>11099048895</v>
+      </c>
+      <c r="F285">
+        <v>6207922</v>
+      </c>
+      <c r="G285">
+        <v>1141468640</v>
+      </c>
+      <c r="I285">
+        <f t="shared" si="146"/>
+        <v>90.489429775322208</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="C286">
+        <v>65273920</v>
+      </c>
+      <c r="D286">
+        <v>65273920</v>
+      </c>
+      <c r="E286">
+        <v>11099048895</v>
+      </c>
+      <c r="F286">
+        <v>6157488</v>
+      </c>
+      <c r="G286">
+        <v>1127051543</v>
+      </c>
+      <c r="I286">
+        <f t="shared" si="146"/>
+        <v>90.566694937273567</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="C287">
+        <v>65273920</v>
+      </c>
+      <c r="D287">
+        <v>65273920</v>
+      </c>
+      <c r="E287">
+        <v>11099048895</v>
+      </c>
+      <c r="F287">
+        <v>5872718</v>
+      </c>
+      <c r="G287">
+        <v>1083165358</v>
+      </c>
+      <c r="I287">
+        <f t="shared" si="146"/>
+        <v>91.002964124109596</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="C288">
+        <v>65273920</v>
+      </c>
+      <c r="D288">
+        <v>65273920</v>
+      </c>
+      <c r="E288">
+        <v>11099048895</v>
+      </c>
+      <c r="F288">
+        <v>5894182</v>
+      </c>
+      <c r="G288">
+        <v>1089355468</v>
+      </c>
+      <c r="I288">
+        <f t="shared" si="146"/>
+        <v>90.970081159519765</v>
+      </c>
+    </row>
+    <row r="289" spans="2:9">
+      <c r="E289" t="s">
+        <v>56</v>
+      </c>
+      <c r="F289">
+        <f>AVERAGE(F284:F288)</f>
+        <v>6033673</v>
+      </c>
+      <c r="G289">
+        <f t="shared" ref="G289" si="179">AVERAGE(G284:G288)</f>
+        <v>1109751796.5999999</v>
+      </c>
+      <c r="I289">
+        <f t="shared" ref="I289" si="180">AVERAGE(I284:I288)</f>
+        <v>90.756380189821613</v>
+      </c>
+    </row>
+    <row r="290" spans="2:9">
+      <c r="E290" t="s">
+        <v>57</v>
+      </c>
+      <c r="F290">
+        <f>_xlfn.STDEV.P(F284:F288)</f>
+        <v>134953.91306368259</v>
+      </c>
+      <c r="G290">
+        <f t="shared" ref="G290" si="181">_xlfn.STDEV.P(G284:G288)</f>
+        <v>22055497.060476579</v>
+      </c>
+      <c r="I290">
+        <f t="shared" ref="I290" si="182">_xlfn.STDEV.P(I284:I288)</f>
+        <v>0.20675012786681707</v>
+      </c>
+    </row>
+    <row r="291" spans="2:9">
+      <c r="E291" t="s">
+        <v>58</v>
+      </c>
+      <c r="F291">
+        <f>_xlfn.VAR.P(F284:F288)</f>
+        <v>18212558651.200001</v>
+      </c>
+      <c r="G291">
+        <f t="shared" ref="G291" si="183">_xlfn.VAR.P(G284:G288)</f>
+        <v>486444950584691</v>
+      </c>
+      <c r="I291">
+        <f t="shared" ref="I291" si="184">_xlfn.VAR.P(I284:I288)</f>
+        <v>4.2745615372945203E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="2:9">
+      <c r="E292" t="s">
+        <v>59</v>
+      </c>
+      <c r="F292">
+        <f>((MAX(F284:F288)-MIN(F284:F288))*100)/AVERAGE(F284:F288)</f>
+        <v>5.5555546347970797</v>
+      </c>
+      <c r="G292">
+        <f t="shared" ref="G292" si="185">((MAX(G284:G288)-MIN(G284:G288))*100)/AVERAGE(G284:G288)</f>
+        <v>5.2537226953474256</v>
+      </c>
+    </row>
+    <row r="294" spans="2:9">
+      <c r="B294" t="s">
+        <v>47</v>
+      </c>
+      <c r="C294">
+        <v>65273920</v>
+      </c>
+      <c r="D294">
+        <v>65273920</v>
+      </c>
+      <c r="E294">
+        <v>11099048895</v>
+      </c>
+      <c r="F294">
+        <v>65273920</v>
+      </c>
+      <c r="G294">
+        <v>10141990393</v>
+      </c>
+      <c r="I294">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="2:9">
+      <c r="C295">
+        <v>65273920</v>
+      </c>
+      <c r="D295">
+        <v>65273920</v>
+      </c>
+      <c r="E295">
+        <v>11099048895</v>
+      </c>
+      <c r="F295">
+        <v>65130822</v>
+      </c>
+      <c r="G295">
+        <v>10119502981</v>
+      </c>
+      <c r="I295">
+        <f t="shared" si="146"/>
+        <v>0.21922691329094376</v>
+      </c>
+    </row>
+    <row r="296" spans="2:9">
+      <c r="C296">
+        <v>65273920</v>
+      </c>
+      <c r="D296">
+        <v>65273920</v>
+      </c>
+      <c r="E296">
+        <v>11099048895</v>
+      </c>
+      <c r="F296">
+        <v>65273920</v>
+      </c>
+      <c r="G296">
+        <v>10141969283</v>
+      </c>
+      <c r="I296">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="2:9">
+      <c r="C297">
+        <v>65273920</v>
+      </c>
+      <c r="D297">
+        <v>65273920</v>
+      </c>
+      <c r="E297">
+        <v>11099048895</v>
+      </c>
+      <c r="F297">
+        <v>65273920</v>
+      </c>
+      <c r="G297">
+        <v>10141969283</v>
+      </c>
+      <c r="I297">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="2:9">
+      <c r="C298">
+        <v>65273920</v>
+      </c>
+      <c r="D298">
+        <v>65273920</v>
+      </c>
+      <c r="E298">
+        <v>11099048895</v>
+      </c>
+      <c r="F298">
+        <v>65273920</v>
+      </c>
+      <c r="G298">
+        <v>10141969283</v>
+      </c>
+      <c r="I298">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="2:9">
+      <c r="E299" t="s">
+        <v>56</v>
+      </c>
+      <c r="F299">
+        <f>AVERAGE(F294:F298)</f>
+        <v>65245300.399999999</v>
+      </c>
+      <c r="G299">
+        <f t="shared" ref="G299" si="186">AVERAGE(G294:G298)</f>
+        <v>10137480244.6</v>
+      </c>
+      <c r="I299">
+        <f t="shared" ref="I299" si="187">AVERAGE(I294:I298)</f>
+        <v>4.3845382658188756E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="2:9">
+      <c r="E300" t="s">
+        <v>57</v>
+      </c>
+      <c r="F300">
+        <f>_xlfn.STDEV.P(F294:F298)</f>
+        <v>57239.200000000004</v>
+      </c>
+      <c r="G300">
+        <f t="shared" ref="G300" si="188">_xlfn.STDEV.P(G294:G298)</f>
+        <v>8988635.5182967689</v>
+      </c>
+      <c r="I300">
+        <f t="shared" ref="I300" si="189">_xlfn.STDEV.P(I294:I298)</f>
+        <v>8.7690765316377511E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="2:9">
+      <c r="E301" t="s">
+        <v>58</v>
+      </c>
+      <c r="F301">
+        <f>_xlfn.VAR.P(F294:F298)</f>
+        <v>3276326016.6400003</v>
+      </c>
+      <c r="G301">
+        <f t="shared" ref="G301" si="190">_xlfn.VAR.P(G294:G298)</f>
+        <v>80795568480786.234</v>
+      </c>
+      <c r="I301">
+        <f t="shared" ref="I301" si="191">_xlfn.VAR.P(I294:I298)</f>
+        <v>7.6896703217719962E-3</v>
+      </c>
+    </row>
+    <row r="302" spans="2:9">
+      <c r="E302" t="s">
+        <v>59</v>
+      </c>
+      <c r="F302">
+        <f>((MAX(F294:F298)-MIN(F294:F298))*100)/AVERAGE(F294:F298)</f>
+        <v>0.2193230763330197</v>
+      </c>
+      <c r="G302">
+        <f t="shared" ref="G302" si="192">((MAX(G294:G298)-MIN(G294:G298))*100)/AVERAGE(G294:G298)</f>
+        <v>0.22182447173673675</v>
+      </c>
+    </row>
+    <row r="304" spans="2:9">
+      <c r="B304" t="s">
+        <v>51</v>
+      </c>
+      <c r="C304">
+        <v>65273920</v>
+      </c>
+      <c r="D304">
+        <v>65273920</v>
+      </c>
+      <c r="E304">
+        <v>11099048895</v>
+      </c>
+      <c r="F304">
+        <v>65254337</v>
+      </c>
+      <c r="G304">
+        <f>F304*156</f>
+        <v>10179676572</v>
+      </c>
+      <c r="I304">
+        <f t="shared" si="146"/>
+        <v>3.0001262372475867E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="2:9">
+      <c r="C305">
+        <v>65273920</v>
+      </c>
+      <c r="D305">
+        <v>65273920</v>
+      </c>
+      <c r="E305">
+        <v>11099048895</v>
+      </c>
+      <c r="F305">
+        <v>65234755</v>
+      </c>
+      <c r="G305">
+        <f t="shared" ref="G305:G308" si="193">F305*156</f>
+        <v>10176621780</v>
+      </c>
+      <c r="I305">
+        <f t="shared" si="146"/>
+        <v>6.0000992739519858E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="2:9">
+      <c r="C306">
+        <v>65273920</v>
+      </c>
+      <c r="D306">
+        <v>65273920</v>
+      </c>
+      <c r="E306">
+        <v>11099048895</v>
+      </c>
+      <c r="F306">
+        <v>65273920</v>
+      </c>
+      <c r="G306">
+        <f t="shared" si="193"/>
+        <v>10182731520</v>
+      </c>
+      <c r="I306">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="2:9">
+      <c r="C307">
+        <v>65273920</v>
+      </c>
+      <c r="D307">
+        <v>65273920</v>
+      </c>
+      <c r="E307">
+        <v>11099048895</v>
+      </c>
+      <c r="F307">
+        <v>65255869</v>
+      </c>
+      <c r="G307">
+        <f t="shared" si="193"/>
+        <v>10179915564</v>
+      </c>
+      <c r="I307">
+        <f t="shared" si="146"/>
+        <v>2.7654230050838068E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="2:9">
+      <c r="C308">
+        <v>65273920</v>
+      </c>
+      <c r="D308">
+        <v>65273920</v>
+      </c>
+      <c r="E308">
+        <v>11099048895</v>
+      </c>
+      <c r="F308">
+        <v>65241843</v>
+      </c>
+      <c r="G308">
+        <f t="shared" si="193"/>
+        <v>10177727508</v>
+      </c>
+      <c r="I308">
+        <f t="shared" si="146"/>
+        <v>4.9142138238365336E-2</v>
+      </c>
+    </row>
+    <row r="309" spans="2:9">
+      <c r="E309" t="s">
+        <v>56</v>
+      </c>
+      <c r="F309">
+        <f>AVERAGE(F304:F308)</f>
+        <v>65252144.799999997</v>
+      </c>
+      <c r="G309">
+        <f t="shared" ref="G309" si="194">AVERAGE(G304:G308)</f>
+        <v>10179334588.799999</v>
+      </c>
+      <c r="I309">
+        <f t="shared" ref="I309" si="195">AVERAGE(I304:I308)</f>
+        <v>3.335972468023983E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="2:9">
+      <c r="E310" t="s">
+        <v>57</v>
+      </c>
+      <c r="F310">
+        <f>_xlfn.STDEV.P(F304:F308)</f>
+        <v>13426.592782981093</v>
+      </c>
+      <c r="G310">
+        <f t="shared" ref="G310" si="196">_xlfn.STDEV.P(G304:G308)</f>
+        <v>2094548.4741450509</v>
+      </c>
+      <c r="I310">
+        <f t="shared" ref="I310" si="197">_xlfn.STDEV.P(I304:I308)</f>
+        <v>2.056961307514716E-2</v>
+      </c>
+    </row>
+    <row r="311" spans="2:9">
+      <c r="E311" t="s">
+        <v>58</v>
+      </c>
+      <c r="F311">
+        <f>_xlfn.VAR.P(F304:F308)</f>
+        <v>180273393.75999999</v>
+      </c>
+      <c r="G311">
+        <f t="shared" ref="G311" si="198">_xlfn.VAR.P(G304:G308)</f>
+        <v>4387133310543.3604</v>
+      </c>
+      <c r="I311">
+        <f t="shared" ref="I311" si="199">_xlfn.VAR.P(I304:I308)</f>
+        <v>4.2310898206126505E-4</v>
+      </c>
+    </row>
+    <row r="312" spans="2:9">
+      <c r="E312" t="s">
+        <v>59</v>
+      </c>
+      <c r="F312">
+        <f>((MAX(F304:F308)-MIN(F304:F308))*100)/AVERAGE(F304:F308)</f>
+        <v>6.0021015585069323E-2</v>
+      </c>
+      <c r="G312">
+        <f t="shared" ref="G312" si="200">((MAX(G304:G308)-MIN(G304:G308))*100)/AVERAGE(G304:G308)</f>
+        <v>6.0021015585069323E-2</v>
+      </c>
+    </row>
+    <row r="314" spans="2:9">
+      <c r="B314" t="s">
+        <v>48</v>
+      </c>
+      <c r="C314">
+        <v>65273920</v>
+      </c>
+      <c r="D314">
+        <v>65273920</v>
+      </c>
+      <c r="E314">
+        <v>11099048895</v>
+      </c>
+      <c r="F314">
+        <v>65227619</v>
+      </c>
+      <c r="G314">
+        <v>10135079162</v>
+      </c>
+      <c r="I314">
+        <f t="shared" si="146"/>
+        <v>7.0933383501404546E-2</v>
+      </c>
+    </row>
+    <row r="315" spans="2:9">
+      <c r="C315">
+        <v>65273920</v>
+      </c>
+      <c r="D315">
+        <v>65273920</v>
+      </c>
+      <c r="E315">
+        <v>11099048895</v>
+      </c>
+      <c r="F315">
+        <v>65273920</v>
+      </c>
+      <c r="G315">
+        <v>10141970371</v>
+      </c>
+      <c r="I315">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="2:9">
+      <c r="C316">
+        <v>65273920</v>
+      </c>
+      <c r="D316">
+        <v>65273920</v>
+      </c>
+      <c r="E316">
+        <v>11099048895</v>
+      </c>
+      <c r="F316">
+        <v>65273920</v>
+      </c>
+      <c r="G316">
+        <v>10141970680</v>
+      </c>
+      <c r="I316">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="2:9">
+      <c r="C317">
+        <v>65273920</v>
+      </c>
+      <c r="D317">
+        <v>65273920</v>
+      </c>
+      <c r="E317">
+        <v>11099048895</v>
+      </c>
+      <c r="F317">
+        <v>65273920</v>
+      </c>
+      <c r="G317">
+        <v>10141971534</v>
+      </c>
+      <c r="I317">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="2:9">
+      <c r="C318">
+        <v>65273920</v>
+      </c>
+      <c r="D318">
+        <v>65273920</v>
+      </c>
+      <c r="E318">
+        <v>11099048895</v>
+      </c>
+      <c r="F318">
+        <v>65273920</v>
+      </c>
+      <c r="G318">
+        <v>10141991034</v>
+      </c>
+      <c r="I318">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="2:9">
+      <c r="E319" t="s">
+        <v>56</v>
+      </c>
+      <c r="F319">
+        <f>AVERAGE(F314:F318)</f>
+        <v>65264659.799999997</v>
+      </c>
+      <c r="G319">
+        <f t="shared" ref="G319" si="201">AVERAGE(G314:G318)</f>
+        <v>10140596556.200001</v>
+      </c>
+      <c r="I319">
+        <f t="shared" ref="I319" si="202">AVERAGE(I314:I318)</f>
+        <v>1.4186676700280908E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="2:9">
+      <c r="E320" t="s">
+        <v>57</v>
+      </c>
+      <c r="F320">
+        <f>_xlfn.STDEV.P(F314:F318)</f>
+        <v>18520.400000000001</v>
+      </c>
+      <c r="G320">
+        <f t="shared" ref="G320" si="203">_xlfn.STDEV.P(G314:G318)</f>
+        <v>2758708.1892003291</v>
+      </c>
+      <c r="I320">
+        <f t="shared" ref="I320" si="204">_xlfn.STDEV.P(I314:I318)</f>
+        <v>2.8373353400561817E-2</v>
+      </c>
+    </row>
+    <row r="321" spans="2:9">
+      <c r="E321" t="s">
+        <v>58</v>
+      </c>
+      <c r="F321">
+        <f>_xlfn.VAR.P(F314:F318)</f>
+        <v>343005216.16000009</v>
+      </c>
+      <c r="G321">
+        <f t="shared" ref="G321" si="205">_xlfn.VAR.P(G314:G318)</f>
+        <v>7610470873160.959</v>
+      </c>
+      <c r="I321">
+        <f t="shared" ref="I321" si="206">_xlfn.VAR.P(I314:I318)</f>
+        <v>8.0504718319317279E-4</v>
+      </c>
+    </row>
+    <row r="322" spans="2:9">
+      <c r="E322" t="s">
+        <v>59</v>
+      </c>
+      <c r="F322">
+        <f>((MAX(F314:F318)-MIN(F314:F318))*100)/AVERAGE(F314:F318)</f>
+        <v>7.0943448019015032E-2</v>
+      </c>
+      <c r="G322">
+        <f t="shared" ref="G322" si="207">((MAX(G314:G318)-MIN(G314:G318))*100)/AVERAGE(G314:G318)</f>
+        <v>6.8160408134707362E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="2:9">
+      <c r="B324" t="s">
+        <v>49</v>
+      </c>
+      <c r="C324">
+        <v>65273920</v>
+      </c>
+      <c r="D324">
+        <v>65273920</v>
+      </c>
+      <c r="E324">
+        <v>11099048895</v>
+      </c>
+      <c r="F324">
+        <v>65273920</v>
+      </c>
+      <c r="G324">
+        <v>12665621334</v>
+      </c>
+      <c r="I324">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="2:9">
+      <c r="C325">
+        <v>65273920</v>
+      </c>
+      <c r="D325">
+        <v>65273920</v>
+      </c>
+      <c r="E325">
+        <v>11099048895</v>
+      </c>
+      <c r="F325">
         <v>65156811</v>
       </c>
-      <c r="G187">
+      <c r="G325">
         <v>12642937212</v>
       </c>
-      <c r="I187">
-        <f t="shared" si="3"/>
+      <c r="I325">
+        <f t="shared" si="146"/>
         <v>0.17941162412185449</v>
       </c>
     </row>
-    <row r="188" spans="2:9">
-      <c r="C188">
+    <row r="326" spans="2:9">
+      <c r="C326">
         <v>65273920</v>
       </c>
-      <c r="D188">
+      <c r="D326">
         <v>65273920</v>
       </c>
-      <c r="E188">
+      <c r="E326">
         <v>11099048895</v>
       </c>
-      <c r="F188">
+      <c r="F326">
         <v>65206366</v>
       </c>
-      <c r="G188">
+      <c r="G326">
         <v>12652613468</v>
       </c>
-      <c r="I188">
-        <f t="shared" si="3"/>
+      <c r="I326">
+        <f t="shared" si="146"/>
         <v>0.10349309494511744</v>
       </c>
     </row>
-    <row r="189" spans="2:9">
-      <c r="C189">
+    <row r="327" spans="2:9">
+      <c r="C327">
         <v>65273920</v>
       </c>
-      <c r="D189">
+      <c r="D327">
         <v>65273920</v>
       </c>
-      <c r="E189">
+      <c r="E327">
         <v>11099048895</v>
       </c>
-      <c r="F189">
+      <c r="F327">
         <v>65187232</v>
       </c>
-      <c r="G189">
+      <c r="G327">
         <v>12649026548</v>
       </c>
-      <c r="I189">
-        <f t="shared" si="3"/>
+      <c r="I327">
+        <f t="shared" si="146"/>
         <v>0.13280648687867988</v>
       </c>
     </row>
-    <row r="190" spans="2:9">
-      <c r="C190">
+    <row r="328" spans="2:9">
+      <c r="C328">
         <v>65273920</v>
       </c>
-      <c r="D190">
+      <c r="D328">
         <v>65273920</v>
       </c>
-      <c r="E190">
+      <c r="E328">
         <v>11099048895</v>
       </c>
-      <c r="F190">
+      <c r="F328">
         <v>65273920</v>
       </c>
-      <c r="G190">
+      <c r="G328">
         <v>12665637605</v>
       </c>
-      <c r="I190">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="I328">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="2:9">
+      <c r="E329" t="s">
+        <v>56</v>
+      </c>
+      <c r="F329">
+        <f>AVERAGE(F324:F328)</f>
+        <v>65219649.799999997</v>
+      </c>
+      <c r="G329">
+        <f t="shared" ref="G329" si="208">AVERAGE(G324:G328)</f>
+        <v>12655167233.4</v>
+      </c>
+      <c r="I329">
+        <f t="shared" ref="I329" si="209">AVERAGE(I324:I328)</f>
+        <v>8.3142241189130356E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="2:9">
+      <c r="E330" t="s">
+        <v>57</v>
+      </c>
+      <c r="F330">
+        <f>_xlfn.STDEV.P(F324:F328)</f>
+        <v>47045.928837254345</v>
+      </c>
+      <c r="G330">
+        <f t="shared" ref="G330" si="210">_xlfn.STDEV.P(G324:G328)</f>
+        <v>9085373.5106650963</v>
+      </c>
+      <c r="I330">
+        <f t="shared" ref="I330" si="211">_xlfn.STDEV.P(I324:I328)</f>
+        <v>7.207461852644112E-2</v>
+      </c>
+    </row>
+    <row r="331" spans="2:9">
+      <c r="E331" t="s">
+        <v>58</v>
+      </c>
+      <c r="F331">
+        <f>_xlfn.VAR.P(F324:F328)</f>
+        <v>2213319420.1599998</v>
+      </c>
+      <c r="G331">
+        <f t="shared" ref="G331" si="212">_xlfn.VAR.P(G324:G328)</f>
+        <v>82544011828295.031</v>
+      </c>
+      <c r="I331">
+        <f t="shared" ref="I331" si="213">_xlfn.VAR.P(I324:I328)</f>
+        <v>5.1947506357320093E-3</v>
+      </c>
+    </row>
+    <row r="332" spans="2:9">
+      <c r="E332" t="s">
+        <v>59</v>
+      </c>
+      <c r="F332">
+        <f>((MAX(F324:F328)-MIN(F324:F328))*100)/AVERAGE(F324:F328)</f>
+        <v>0.17956091509096084</v>
+      </c>
+      <c r="G332">
+        <f t="shared" ref="G332" si="214">((MAX(G324:G328)-MIN(G324:G328))*100)/AVERAGE(G324:G328)</f>
+        <v>0.17937647588005204</v>
       </c>
     </row>
   </sheetData>
